--- a/Question Mapping.xlsx
+++ b/Question Mapping.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renewvia.sharepoint.com/sites/Impact/Impact/Impact Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1423" documentId="8_{38BBC802-F52B-4E87-820E-45783FBF9319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{214F7F81-6B47-47B5-95E7-DC9B0E854859}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692543F2-BE34-4FBC-B461-27D7CB91E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A6574B0E-7A8B-4CB0-B81E-366180133FA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Q-Map" sheetId="4" r:id="rId2"/>
-    <sheet name="pre_map" sheetId="6" r:id="rId3"/>
-    <sheet name="post_map" sheetId="7" r:id="rId4"/>
-    <sheet name="post_com" sheetId="9" r:id="rId5"/>
+    <sheet name="hs_pre_ccare" sheetId="6" r:id="rId3"/>
+    <sheet name="hs_pre_msform" sheetId="10" r:id="rId4"/>
+    <sheet name="hs_post_map" sheetId="7" r:id="rId5"/>
+    <sheet name="c_post" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Q-Map'!$A$6:$AG$146</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="454">
   <si>
     <t>ID</t>
   </si>
@@ -1395,7 +1396,16 @@
     <t>minigrid_problems</t>
   </si>
   <si>
-    <t xml:space="preserve">no. </t>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>Completed time</t>
+  </si>
+  <si>
+    <t>What is your Kenya or Nigeria ID Number?</t>
+  </si>
+  <si>
+    <t>country_id</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1667,7 +1677,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8850,10 +8859,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E44D979-CF7B-478F-851B-157BE9DB6A64}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8865,7 +8874,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s">
         <v>280</v>
@@ -8885,16 +8894,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>420</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>450</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" t="s">
-        <v>219</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -8902,16 +8908,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>421</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>451</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" t="s">
-        <v>221</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -8919,13 +8922,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -8933,13 +8939,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -8947,13 +8956,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -8961,16 +8970,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -8978,16 +8984,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -8995,16 +8998,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -9012,13 +9015,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -9026,13 +9032,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -9040,16 +9049,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -9057,16 +9063,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -9074,16 +9077,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -9091,16 +9094,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>220</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -9108,13 +9111,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>218</v>
+      </c>
+      <c r="E16" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -9122,16 +9128,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>220</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -9139,10 +9145,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>214</v>
@@ -9153,16 +9159,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>220</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -9170,13 +9176,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -9184,13 +9190,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="E21" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -9198,10 +9207,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>213</v>
@@ -9212,10 +9221,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>213</v>
@@ -9226,10 +9235,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>213</v>
@@ -9240,16 +9249,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -9257,16 +9263,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -9274,13 +9277,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="E27" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -9288,16 +9294,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>220</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -9305,13 +9311,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -9319,13 +9325,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="E30" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -9333,16 +9342,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E31" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -9350,13 +9356,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -9364,16 +9370,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>369</v>
+        <v>305</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
         <v>220</v>
       </c>
       <c r="E33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -9381,16 +9387,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
-      </c>
-      <c r="E34" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -9398,16 +9401,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>307</v>
+        <v>369</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
         <v>220</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -9415,16 +9418,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
         <v>220</v>
       </c>
       <c r="E36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -9432,13 +9435,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E37" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -9446,16 +9452,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
         <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -9463,16 +9469,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -9480,13 +9483,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E40" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -9494,13 +9500,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="E41" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -9508,10 +9517,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -9519,16 +9531,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -9536,13 +9545,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -9550,10 +9556,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
         <v>220</v>
@@ -9567,10 +9573,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
         <v>214</v>
@@ -9581,13 +9587,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="E47" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -9595,16 +9604,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
-      </c>
-      <c r="E48" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -9612,10 +9618,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
         <v>213</v>
@@ -9626,16 +9632,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
         <v>220</v>
       </c>
       <c r="E50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -9643,16 +9649,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -9660,16 +9663,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D52" t="s">
         <v>220</v>
       </c>
       <c r="E52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -9677,13 +9680,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E53" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -9691,16 +9697,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
         <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -9708,16 +9714,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -9725,16 +9728,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
         <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -9742,16 +9745,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
         <v>220</v>
       </c>
       <c r="E57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -9759,16 +9762,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E58" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -9776,16 +9779,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
         <v>220</v>
       </c>
       <c r="E59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -9793,16 +9796,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -9810,16 +9813,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -9827,16 +9830,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E62" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -9844,16 +9847,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E63" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -9861,16 +9864,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E64" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -9878,16 +9881,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E65" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -9895,16 +9898,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
         <v>220</v>
       </c>
       <c r="E66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -9912,13 +9915,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D67" t="s">
         <v>214</v>
+      </c>
+      <c r="E67" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -9926,16 +9932,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D68" t="s">
         <v>220</v>
       </c>
       <c r="E68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -9943,16 +9949,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
-      </c>
-      <c r="E69" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -9960,16 +9963,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
         <v>220</v>
       </c>
       <c r="E70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -9977,16 +9980,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D71" t="s">
         <v>220</v>
       </c>
       <c r="E71" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -9994,16 +9997,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D72" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E72" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -10011,16 +10014,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
         <v>220</v>
       </c>
       <c r="E73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -10028,13 +10031,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>218</v>
+      </c>
+      <c r="E74" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -10042,16 +10048,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
         <v>220</v>
       </c>
       <c r="E75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -10059,16 +10065,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
-      </c>
-      <c r="E76" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -10076,16 +10079,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s">
         <v>220</v>
       </c>
       <c r="E77" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -10093,16 +10096,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D78" t="s">
         <v>220</v>
       </c>
       <c r="E78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -10110,16 +10113,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D79" t="s">
         <v>220</v>
       </c>
       <c r="E79" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -10127,16 +10130,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D80" t="s">
         <v>220</v>
       </c>
       <c r="E80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -10144,16 +10147,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D81" t="s">
         <v>220</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -10161,16 +10164,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E82" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -10178,13 +10181,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="E83" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -10192,15 +10198,46 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
         <v>218</v>
       </c>
       <c r="E84" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>354</v>
+      </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>355</v>
+      </c>
+      <c r="C86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" t="s">
         <v>227</v>
       </c>
     </row>
@@ -10210,11 +10247,1411 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB8B987-8C70-429C-99A9-1ADC3A563480}">
+  <dimension ref="A1:E87"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>369</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>312</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>317</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>385</v>
+      </c>
+      <c r="C52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>318</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>319</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>320</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>326</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>327</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>328</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>329</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>330</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>331</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>334</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>335</v>
+      </c>
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>336</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>337</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>339</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>220</v>
+      </c>
+      <c r="E71" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>340</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>341</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>220</v>
+      </c>
+      <c r="E74" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>343</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>344</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>345</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>346</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>349</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>350</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>351</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>352</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>353</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>354</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>355</v>
+      </c>
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA0DC5C-17EB-4935-AE0D-000AF4E18311}">
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11663,43 +13100,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A8CDC9-C2F2-420D-B1BC-4332EE1CC287}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="142.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="53">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" t="s">
         <v>420</v>
       </c>
       <c r="C2" t="s">
@@ -11710,10 +13147,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="53">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" t="s">
         <v>421</v>
       </c>
       <c r="C3" t="s">
@@ -11724,10 +13161,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="53">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" t="s">
         <v>286</v>
       </c>
       <c r="C4" t="s">
@@ -11738,10 +13175,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="53">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" t="s">
         <v>282</v>
       </c>
       <c r="C5" t="s">
@@ -11755,10 +13192,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="53">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" t="s">
         <v>422</v>
       </c>
       <c r="C6" t="s">
@@ -11772,10 +13209,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="53">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" t="s">
         <v>290</v>
       </c>
       <c r="C7" t="s">
@@ -11789,10 +13226,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="53">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" t="s">
         <v>423</v>
       </c>
       <c r="C8" t="s">
@@ -11806,10 +13243,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="53">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" t="s">
         <v>424</v>
       </c>
       <c r="C9" t="s">
@@ -11823,10 +13260,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="53">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" t="s">
         <v>287</v>
       </c>
       <c r="C10" t="s">
@@ -11837,10 +13274,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="53">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" t="s">
         <v>288</v>
       </c>
       <c r="C11" t="s">
@@ -11851,10 +13288,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="53">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" t="s">
         <v>285</v>
       </c>
       <c r="C12" t="s">
@@ -11868,10 +13305,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="53">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" t="s">
         <v>370</v>
       </c>
       <c r="C13" t="s">
@@ -11885,10 +13322,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="53">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" t="s">
         <v>425</v>
       </c>
       <c r="C14" t="s">
@@ -11899,10 +13336,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="53">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" t="s">
         <v>426</v>
       </c>
       <c r="C15" t="s">
@@ -11916,10 +13353,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="53">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" t="s">
         <v>427</v>
       </c>
       <c r="C16" t="s">
@@ -11930,10 +13367,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="53">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" t="s">
         <v>428</v>
       </c>
       <c r="C17" t="s">
@@ -11947,10 +13384,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="53">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" t="s">
         <v>429</v>
       </c>
       <c r="C18" t="s">
@@ -11961,10 +13398,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="53">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" t="s">
         <v>430</v>
       </c>
       <c r="C19" t="s">
@@ -11975,10 +13412,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="53">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" t="s">
         <v>431</v>
       </c>
       <c r="C20" t="s">
@@ -11992,10 +13429,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="53">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" t="s">
         <v>432</v>
       </c>
       <c r="C21" t="s">
@@ -12009,10 +13446,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="53">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" t="s">
         <v>433</v>
       </c>
       <c r="C22" t="s">
@@ -12026,10 +13463,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="53">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" t="s">
         <v>434</v>
       </c>
       <c r="C23" t="s">
@@ -12043,10 +13480,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="53">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" t="s">
         <v>435</v>
       </c>
       <c r="C24" t="s">
@@ -12060,10 +13497,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="53">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" t="s">
         <v>436</v>
       </c>
       <c r="C25" t="s">
@@ -12077,10 +13514,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="53">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" t="s">
         <v>437</v>
       </c>
       <c r="C26" t="s">
@@ -12091,10 +13528,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="53">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" t="s">
         <v>438</v>
       </c>
       <c r="C27" t="s">
@@ -12108,10 +13545,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="53">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" t="s">
         <v>439</v>
       </c>
       <c r="C28" t="s">
@@ -12122,10 +13559,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="53">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" t="s">
         <v>440</v>
       </c>
       <c r="C29" t="s">
@@ -12136,10 +13573,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="53">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" t="s">
         <v>441</v>
       </c>
       <c r="C30" t="s">
@@ -12153,10 +13590,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="53">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" t="s">
         <v>443</v>
       </c>
       <c r="C31" t="s">
@@ -12167,10 +13604,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="53">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" t="s">
         <v>442</v>
       </c>
       <c r="C32" t="s">
@@ -12184,10 +13621,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="53">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" t="s">
         <v>444</v>
       </c>
       <c r="C33" t="s">
@@ -12198,10 +13635,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="53">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" t="s">
         <v>445</v>
       </c>
       <c r="C34" t="s">
@@ -12215,10 +13652,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="53">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" t="s">
         <v>446</v>
       </c>
       <c r="C35" t="s">
@@ -12229,10 +13666,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="53">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" t="s">
         <v>447</v>
       </c>
       <c r="C36" t="s">
@@ -12246,10 +13683,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="53">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" t="s">
         <v>448</v>
       </c>
       <c r="C37" t="s">
@@ -12260,10 +13697,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="53">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" t="s">
         <v>449</v>
       </c>
       <c r="C38" t="s">
@@ -12279,15 +13716,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D043F9FF1D31F444B12D1B8F30B7CF87" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6b526c4793c89feb0c8cdabd3c692c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e745851-e6e8-42e6-89fe-c235679e32c0" xmlns:ns3="e199ede6-7e25-4580-bda2-cfde9ad7e904" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d595913af439e730afc6ac66aee0fc3" ns2:_="" ns3:_="">
     <xsd:import namespace="7e745851-e6e8-42e6-89fe-c235679e32c0"/>
@@ -12458,15 +13886,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3263C5-0AF8-41EC-BDD2-5AE3B0772BD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A469AFBF-675B-425C-AFB3-A93069D4EE41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12483,4 +13912,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3263C5-0AF8-41EC-BDD2-5AE3B0772BD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Question Mapping.xlsx
+++ b/Question Mapping.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F9CE9-CACC-4A77-9BA4-2AC4BE30CF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428CA2E2-25B2-4FC7-A21A-E8F904D8C733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A6574B0E-7A8B-4CB0-B81E-366180133FA1}"/>
-    <workbookView xWindow="45972" yWindow="492" windowWidth="13176" windowHeight="22656" activeTab="3" xr2:uid="{1AE6AAB3-58C5-41C2-9138-4E17689469B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -23,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Q_ci!$A$1:$AG$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Q_hs_post!$A$1:$AF$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Q_hs_pre!$A$1:$AF$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$C$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="228">
   <si>
     <t xml:space="preserve">G </t>
   </si>
@@ -383,6 +383,9 @@
     <t>Types of Electronic Devices or Appliances in Household (POST mini-grid connection) Select all that apply</t>
   </si>
   <si>
+    <t>How many kerosene lamps do you currently use in your household?</t>
+  </si>
+  <si>
     <t>Has the number of kerosene lamps in your household changed since connection to minigrid?</t>
   </si>
   <si>
@@ -410,9 +413,6 @@
     <t>In what way has minigrid power made you or your family more productive?</t>
   </si>
   <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
     <t>Interval</t>
   </si>
   <si>
@@ -557,9 +557,6 @@
     <t>Paired t-Test</t>
   </si>
   <si>
-    <t>Binomial Test</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -572,6 +569,9 @@
     <t>Categorical: Ordinal</t>
   </si>
   <si>
+    <t>How many hours of light per day do you currently have at home?</t>
+  </si>
+  <si>
     <t>What are your main sources of energy for charging appliances (eg phones)? POST - CONNECTION</t>
   </si>
   <si>
@@ -659,15 +659,6 @@
     <t>Categorical - Nominal</t>
   </si>
   <si>
-    <t>Mann-Whitney U</t>
-  </si>
-  <si>
-    <t>Wilcoxon signed rank sum test </t>
-  </si>
-  <si>
-    <t>Kruskal Wallis test</t>
-  </si>
-  <si>
     <t>Time spent cooking</t>
   </si>
   <si>
@@ -678,6 +669,66 @@
   </si>
   <si>
     <t>Measurement Level</t>
+  </si>
+  <si>
+    <t>Frequency distribution</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Chi-square test of independence</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Spearman’s rho (rank correlation efficient)</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Sample(s)</t>
+  </si>
+  <si>
+    <t>HS Pre</t>
+  </si>
+  <si>
+    <t>HS Post</t>
+  </si>
+  <si>
+    <t>HS Pre, HS Post</t>
+  </si>
+  <si>
+    <t>CI post</t>
+  </si>
+  <si>
+    <t>How many electronic devices or appliances do you currently use in the household?</t>
+  </si>
+  <si>
+    <t>Types of Electronic Devices or Appliances in Household Select all that apply</t>
+  </si>
+  <si>
+    <t>CI Post</t>
+  </si>
+  <si>
+    <t>Transform into ratio</t>
+  </si>
+  <si>
+    <t>One-Sampe T-test</t>
+  </si>
+  <si>
+    <t>Employment (Jobs/Business) per Gender</t>
   </si>
 </sst>
 </file>
@@ -789,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -971,9 +1022,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -1307,1318 +1355,1132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C686D34-E6E7-42EB-A000-4AF5B0346840}">
-  <dimension ref="B1:L89"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="11" width="2.26953125" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.26953125" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" customWidth="1"/>
+    <col min="15" max="16" width="12.81640625" customWidth="1"/>
+    <col min="17" max="17" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="69" t="s">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C1" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="69" t="s">
+      <c r="M1" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="P1" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="69" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" s="69" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" s="39"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="L2" s="40"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="40"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+    </row>
+    <row r="5" spans="2:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="2:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+    </row>
+    <row r="8" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E9" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+    </row>
+    <row r="12" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E12" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
+    </row>
+    <row r="17" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B10" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="60" t="s">
+      <c r="E17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="39"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B18" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q18" s="39"/>
+    </row>
+    <row r="19" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="39"/>
+    </row>
+    <row r="20" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
+    </row>
+    <row r="21" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="39"/>
+    </row>
+    <row r="22" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="39"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B23" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+    </row>
+    <row r="24" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" t="s">
+        <v>166</v>
+      </c>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B25" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" t="s">
+        <v>166</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B26" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B27" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+    </row>
+    <row r="28" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B29" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+    </row>
+    <row r="30" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B30" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B31" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B32" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B33" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" t="s">
+        <v>166</v>
+      </c>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B34" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B35" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B36" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
+      </c>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+    </row>
+    <row r="37" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" t="s">
+        <v>166</v>
+      </c>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B38" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+    </row>
+    <row r="39" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" t="s">
+        <v>203</v>
+      </c>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B40" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B41" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B42" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B43" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" t="s">
+        <v>203</v>
+      </c>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B44" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+    </row>
+    <row r="45" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B45" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+    </row>
+    <row r="47" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B47" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" t="s">
+        <v>167</v>
+      </c>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B48" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="N49" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B50" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" t="s">
+        <v>166</v>
+      </c>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B51" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" t="s">
+        <v>203</v>
+      </c>
+      <c r="N51" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B52" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+    </row>
+    <row r="53" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B53" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" t="s">
+        <v>203</v>
+      </c>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B54" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B55" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B56" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+    </row>
+    <row r="57" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B57" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" t="s">
+        <v>166</v>
+      </c>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B58" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B59" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" t="s">
+        <v>167</v>
+      </c>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B60" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" t="s">
+        <v>167</v>
+      </c>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B61" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B62" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" t="s">
+        <v>203</v>
+      </c>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+    </row>
+    <row r="63" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B63" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+    </row>
+    <row r="64" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B64" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" t="s">
+        <v>203</v>
+      </c>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B65" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B66" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" t="s">
+        <v>203</v>
+      </c>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B67" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" t="s">
+        <v>203</v>
+      </c>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+    </row>
+    <row r="68" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B68" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" t="s">
+        <v>203</v>
+      </c>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+    </row>
+    <row r="69" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B69" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" t="s">
+        <v>203</v>
+      </c>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B70" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" t="s">
+        <v>203</v>
+      </c>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B71" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="N71" s="38"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B72" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B73" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B74" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B75" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-    </row>
-    <row r="20" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="L22" s="39"/>
-    </row>
-    <row r="23" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="L23" s="39"/>
-    </row>
-    <row r="24" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="L25" s="39"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="L26" s="39"/>
-    </row>
-    <row r="27" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="L27" s="39"/>
-    </row>
-    <row r="28" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="L28" s="39"/>
-    </row>
-    <row r="29" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="L30" s="39"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-    </row>
-    <row r="32" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B32" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B36" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-    </row>
-    <row r="38" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-    </row>
-    <row r="45" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-    </row>
-    <row r="47" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B47" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" t="s">
-        <v>203</v>
-      </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-    </row>
-    <row r="53" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B53" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-    </row>
-    <row r="54" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B54" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-    </row>
-    <row r="55" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B55" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-    </row>
-    <row r="56" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B56" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" t="s">
-        <v>166</v>
-      </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-    </row>
-    <row r="62" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B62" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-    </row>
-    <row r="63" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B63" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="C66" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-    </row>
-    <row r="69" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B69" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="C69" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-    </row>
-    <row r="71" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-    </row>
-    <row r="72" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B72" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-    </row>
-    <row r="73" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B73" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" t="s">
-        <v>203</v>
-      </c>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-    </row>
-    <row r="77" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B77" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" t="s">
-        <v>203</v>
-      </c>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-    </row>
-    <row r="78" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B78" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" t="s">
-        <v>203</v>
-      </c>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B84" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C84" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B85" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B88" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B89" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" t="s">
-        <v>167</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:P1" xr:uid="{8C686D34-E6E7-42EB-A000-4AF5B0346840}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2630,12 +2492,8 @@
   <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2699,7 +2557,7 @@
         <v>148</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>149</v>
@@ -3335,7 +3193,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -3410,7 +3268,7 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3486,7 +3344,7 @@
       <c r="AD20" s="45"/>
       <c r="AE20" s="45"/>
       <c r="AF20" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3564,7 +3422,7 @@
       <c r="AD22" s="45"/>
       <c r="AE22" s="45"/>
       <c r="AF22" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:32" s="47" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -3600,7 +3458,7 @@
       <c r="Z23" s="45"/>
       <c r="AA23" s="45"/>
       <c r="AB23" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC23" s="6"/>
       <c r="AD23" s="45"/>
@@ -3842,7 +3700,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="3"/>
@@ -3956,7 +3814,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="3"/>
@@ -4071,7 +3929,7 @@
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -4101,7 +3959,7 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF36" s="3"/>
     </row>
@@ -4384,7 +4242,7 @@
       </c>
       <c r="G44" s="44"/>
       <c r="H44" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="44"/>
@@ -4424,7 +4282,7 @@
       </c>
       <c r="G45" s="44"/>
       <c r="H45" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="44"/>
@@ -4464,7 +4322,7 @@
       </c>
       <c r="G46" s="44"/>
       <c r="H46" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I46" s="45"/>
       <c r="J46" s="45"/>
@@ -4542,7 +4400,7 @@
       </c>
       <c r="G48" s="44"/>
       <c r="H48" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I48" s="45"/>
       <c r="J48" s="45"/>
@@ -4618,7 +4476,7 @@
         <v>38</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -4640,7 +4498,7 @@
         <v>16</v>
       </c>
       <c r="Y50" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z50" s="44"/>
       <c r="AA50" s="44"/>
@@ -4662,7 +4520,7 @@
         <v>38</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -4712,7 +4570,7 @@
       <c r="O52" s="3"/>
       <c r="P52" s="45"/>
       <c r="Q52" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -4752,7 +4610,7 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -4792,7 +4650,7 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -4808,7 +4666,7 @@
       <c r="AA54" s="44"/>
       <c r="AB54" s="44"/>
       <c r="AC54" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD54" s="44"/>
       <c r="AE54" s="44"/>
@@ -4906,7 +4764,7 @@
       <c r="I57" s="45"/>
       <c r="J57" s="45"/>
       <c r="K57" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L57" s="45"/>
       <c r="M57" s="45"/>
@@ -5002,7 +4860,7 @@
       <c r="AA59" s="44"/>
       <c r="AB59" s="44"/>
       <c r="AC59" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD59" s="44"/>
       <c r="AE59" s="44"/>
@@ -5116,7 +4974,7 @@
       <c r="AA62" s="45"/>
       <c r="AB62" s="45"/>
       <c r="AC62" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD62" s="45"/>
       <c r="AE62" s="45"/>
@@ -5146,7 +5004,7 @@
         <v>40</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
@@ -5187,7 +5045,7 @@
       </c>
       <c r="S64" s="3"/>
       <c r="T64" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -5227,7 +5085,7 @@
       </c>
       <c r="S65" s="3"/>
       <c r="T65" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
@@ -5266,10 +5124,10 @@
         <v>40</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -5308,7 +5166,7 @@
         <v>40</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T67" s="45"/>
       <c r="U67" s="45"/>
@@ -5455,7 +5313,7 @@
       <c r="J71" s="45"/>
       <c r="K71" s="45"/>
       <c r="L71" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M71" s="45"/>
       <c r="N71" s="45"/>
@@ -5512,7 +5370,7 @@
       <c r="AA72" s="50"/>
       <c r="AB72" s="50"/>
       <c r="AC72" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD72" s="45"/>
       <c r="AE72" s="45"/>
@@ -5535,7 +5393,7 @@
       <c r="J73" s="45"/>
       <c r="K73" s="45"/>
       <c r="L73" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M73" s="45"/>
       <c r="N73" s="45"/>
@@ -5587,7 +5445,7 @@
       <c r="U74" s="45"/>
       <c r="V74" s="45"/>
       <c r="W74" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X74" s="46"/>
       <c r="Y74" s="45"/>
@@ -5620,7 +5478,7 @@
       <c r="N75" s="45"/>
       <c r="O75" s="45"/>
       <c r="P75" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q75" s="45"/>
       <c r="R75" s="45"/>
@@ -5660,7 +5518,7 @@
       <c r="N76" s="45"/>
       <c r="O76" s="45"/>
       <c r="P76" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q76" s="45"/>
       <c r="R76" s="45"/>
@@ -5700,7 +5558,7 @@
       <c r="N77" s="45"/>
       <c r="O77" s="45"/>
       <c r="P77" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q77" s="45"/>
       <c r="R77" s="45"/>
@@ -5734,7 +5592,7 @@
       <c r="H78" s="45"/>
       <c r="I78" s="45"/>
       <c r="J78" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K78" s="45"/>
       <c r="L78" s="45"/>
@@ -5776,7 +5634,7 @@
       <c r="H79" s="45"/>
       <c r="I79" s="45"/>
       <c r="J79" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K79" s="45"/>
       <c r="L79" s="45"/>
@@ -5911,7 +5769,7 @@
       <c r="AA82" s="45"/>
       <c r="AB82" s="45"/>
       <c r="AC82" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD82" s="45"/>
       <c r="AE82" s="45"/>
@@ -6050,7 +5908,7 @@
         <v>39</v>
       </c>
       <c r="N86" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O86" s="45"/>
       <c r="P86" s="45"/>
@@ -6091,7 +5949,7 @@
       </c>
       <c r="N87" s="45"/>
       <c r="O87" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P87" s="45"/>
       <c r="Q87" s="45"/>
@@ -6126,15 +5984,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51208281-3E24-4654-87D0-5BF2E8C3944E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A28" activeCellId="1" sqref="A26 A28"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6198,7 +6053,7 @@
         <v>148</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>149</v>
@@ -6264,7 +6119,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -6302,7 +6157,7 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
@@ -6340,7 +6195,7 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
@@ -6378,7 +6233,7 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>95</v>
       </c>
@@ -6416,7 +6271,7 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>96</v>
       </c>
@@ -6454,7 +6309,7 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
@@ -6492,7 +6347,7 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>7</v>
       </c>
@@ -6530,7 +6385,7 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>8</v>
       </c>
@@ -6568,7 +6423,7 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>9</v>
       </c>
@@ -6606,7 +6461,7 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>10</v>
       </c>
@@ -6644,7 +6499,7 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
@@ -6682,7 +6537,7 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
@@ -6720,7 +6575,7 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>13</v>
       </c>
@@ -6796,10 +6651,10 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>98</v>
       </c>
@@ -6836,7 +6691,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>190</v>
       </c>
@@ -6868,14 +6723,14 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
         <v>99</v>
       </c>
@@ -6913,7 +6768,7 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="45"/>
     </row>
-    <row r="19" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>23</v>
       </c>
@@ -6946,14 +6801,14 @@
       <c r="Z19" s="44"/>
       <c r="AA19" s="44"/>
       <c r="AB19" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC19" s="44"/>
       <c r="AD19" s="44"/>
       <c r="AE19" s="44"/>
       <c r="AF19" s="44"/>
     </row>
-    <row r="20" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>100</v>
       </c>
@@ -6989,7 +6844,7 @@
       <c r="AE20" s="45"/>
       <c r="AF20" s="45"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>101</v>
       </c>
@@ -7025,7 +6880,7 @@
       <c r="AE21" s="44"/>
       <c r="AF21" s="44"/>
     </row>
-    <row r="22" spans="1:32" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
         <v>102</v>
       </c>
@@ -7034,7 +6889,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -7065,7 +6920,7 @@
       <c r="AE22" s="45"/>
       <c r="AF22" s="45"/>
     </row>
-    <row r="23" spans="1:32" s="47" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" s="47" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
         <v>103</v>
       </c>
@@ -7074,7 +6929,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
@@ -7105,7 +6960,7 @@
       <c r="AE23" s="45"/>
       <c r="AF23" s="45"/>
     </row>
-    <row r="24" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>104</v>
       </c>
@@ -7119,7 +6974,7 @@
       <c r="G24" s="54"/>
       <c r="H24" s="55"/>
       <c r="I24" s="56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -7145,7 +7000,7 @@
       <c r="AE24" s="45"/>
       <c r="AF24" s="45"/>
     </row>
-    <row r="25" spans="1:32" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" s="47" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
         <v>191</v>
       </c>
@@ -7159,7 +7014,7 @@
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
       <c r="I25" s="56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
@@ -7185,7 +7040,7 @@
       <c r="AE25" s="45"/>
       <c r="AF25" s="45"/>
     </row>
-    <row r="26" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
         <v>31</v>
       </c>
@@ -7194,7 +7049,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="3"/>
@@ -7225,7 +7080,7 @@
       <c r="AE26" s="45"/>
       <c r="AF26" s="45"/>
     </row>
-    <row r="27" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
         <v>19</v>
       </c>
@@ -7263,7 +7118,7 @@
       <c r="AE27" s="45"/>
       <c r="AF27" s="45"/>
     </row>
-    <row r="28" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
         <v>34</v>
       </c>
@@ -7272,7 +7127,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="3"/>
@@ -7303,7 +7158,7 @@
       <c r="AE28" s="45"/>
       <c r="AF28" s="45"/>
     </row>
-    <row r="29" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
         <v>21</v>
       </c>
@@ -7341,7 +7196,7 @@
       <c r="AE29" s="45"/>
       <c r="AF29" s="45"/>
     </row>
-    <row r="30" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>36</v>
       </c>
@@ -7350,7 +7205,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -7380,11 +7235,11 @@
       <c r="AC30" s="45"/>
       <c r="AD30" s="45"/>
       <c r="AE30" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF30" s="45"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
         <v>105</v>
       </c>
@@ -7420,11 +7275,11 @@
       <c r="AC31" s="45"/>
       <c r="AD31" s="45"/>
       <c r="AE31" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF31" s="45"/>
     </row>
-    <row r="32" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="27" t="s">
         <v>106</v>
       </c>
@@ -7460,11 +7315,11 @@
       <c r="AC32" s="44"/>
       <c r="AD32" s="44"/>
       <c r="AE32" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF32" s="44"/>
     </row>
-    <row r="33" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="27" t="s">
         <v>107</v>
       </c>
@@ -7500,11 +7355,11 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
         <v>108</v>
       </c>
@@ -7540,11 +7395,11 @@
       <c r="AC34" s="44"/>
       <c r="AD34" s="44"/>
       <c r="AE34" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF34" s="44"/>
     </row>
-    <row r="35" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="27" t="s">
         <v>192</v>
       </c>
@@ -7582,7 +7437,7 @@
       <c r="AE35" s="45"/>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="27" t="s">
         <v>32</v>
       </c>
@@ -7620,7 +7475,7 @@
       <c r="AE36" s="45"/>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
         <v>44</v>
       </c>
@@ -7658,7 +7513,7 @@
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="27" t="s">
         <v>45</v>
       </c>
@@ -7696,7 +7551,7 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27" t="s">
         <v>35</v>
       </c>
@@ -7734,7 +7589,7 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
     </row>
-    <row r="40" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="27" t="s">
         <v>193</v>
       </c>
@@ -7747,7 +7602,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -7774,7 +7629,7 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
         <v>109</v>
       </c>
@@ -7787,7 +7642,7 @@
       </c>
       <c r="G41" s="44"/>
       <c r="H41" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I41" s="44"/>
       <c r="J41" s="44"/>
@@ -7814,7 +7669,7 @@
       <c r="AE41" s="44"/>
       <c r="AF41" s="44"/>
     </row>
-    <row r="42" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="27" t="s">
         <v>48</v>
       </c>
@@ -7827,7 +7682,7 @@
       </c>
       <c r="G42" s="44"/>
       <c r="H42" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="44"/>
@@ -7854,7 +7709,7 @@
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
         <v>111</v>
       </c>
@@ -7867,7 +7722,7 @@
       </c>
       <c r="G43" s="44"/>
       <c r="H43" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="44"/>
@@ -7894,7 +7749,7 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
     </row>
-    <row r="44" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="27" t="s">
         <v>43</v>
       </c>
@@ -7932,7 +7787,7 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="1:32" ht="58" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="27" t="s">
         <v>110</v>
       </c>
@@ -7945,7 +7800,7 @@
       </c>
       <c r="G45" s="44"/>
       <c r="H45" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="44"/>
@@ -7972,7 +7827,7 @@
       <c r="AE45" s="44"/>
       <c r="AF45" s="44"/>
     </row>
-    <row r="46" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="27" t="s">
         <v>46</v>
       </c>
@@ -8010,7 +7865,7 @@
       <c r="AE46" s="45"/>
       <c r="AF46" s="45"/>
     </row>
-    <row r="47" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="27" t="s">
         <v>194</v>
       </c>
@@ -8022,7 +7877,7 @@
         <v>38</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
@@ -8050,7 +7905,7 @@
       <c r="AE47" s="45"/>
       <c r="AF47" s="45"/>
     </row>
-    <row r="48" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="27" t="s">
         <v>53</v>
       </c>
@@ -8062,7 +7917,7 @@
         <v>38</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H48" s="44"/>
       <c r="I48" s="45"/>
@@ -8090,9 +7945,9 @@
       <c r="AE48" s="45"/>
       <c r="AF48" s="45"/>
     </row>
-    <row r="49" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B49" s="44"/>
       <c r="C49" s="45"/>
@@ -8111,7 +7966,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="45"/>
       <c r="Q49" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R49" s="45"/>
       <c r="S49" s="45"/>
@@ -8129,7 +7984,7 @@
       <c r="AE49" s="45"/>
       <c r="AF49" s="45"/>
     </row>
-    <row r="50" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="27" t="s">
         <v>195</v>
       </c>
@@ -8151,7 +8006,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -8169,7 +8024,7 @@
       <c r="AE50" s="44"/>
       <c r="AF50" s="44"/>
     </row>
-    <row r="51" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="27" t="s">
         <v>54</v>
       </c>
@@ -8191,7 +8046,7 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -8208,7 +8063,7 @@
       <c r="AE51" s="44"/>
       <c r="AF51" s="44"/>
     </row>
-    <row r="52" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="27" t="s">
         <v>55</v>
       </c>
@@ -8242,13 +8097,13 @@
       <c r="AA52" s="44"/>
       <c r="AB52" s="44"/>
       <c r="AC52" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD52" s="44"/>
       <c r="AE52" s="44"/>
       <c r="AF52" s="44"/>
     </row>
-    <row r="53" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="27" t="s">
         <v>56</v>
       </c>
@@ -8286,7 +8141,7 @@
       <c r="AE53" s="44"/>
       <c r="AF53" s="44"/>
     </row>
-    <row r="54" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="27" t="s">
         <v>50</v>
       </c>
@@ -8323,7 +8178,7 @@
       <c r="AE54" s="44"/>
       <c r="AF54" s="44"/>
     </row>
-    <row r="55" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="27" t="s">
         <v>58</v>
       </c>
@@ -8339,7 +8194,7 @@
       <c r="I55" s="44"/>
       <c r="J55" s="44"/>
       <c r="K55" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L55" s="44"/>
       <c r="M55" s="44"/>
@@ -8363,7 +8218,7 @@
       <c r="AE55" s="44"/>
       <c r="AF55" s="44"/>
     </row>
-    <row r="56" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>59</v>
       </c>
@@ -8399,7 +8254,7 @@
       <c r="AE56" s="44"/>
       <c r="AF56" s="44"/>
     </row>
-    <row r="57" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="27" t="s">
         <v>60</v>
       </c>
@@ -8432,13 +8287,13 @@
       <c r="AA57" s="44"/>
       <c r="AB57" s="44"/>
       <c r="AC57" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD57" s="44"/>
       <c r="AE57" s="44"/>
       <c r="AF57" s="44"/>
     </row>
-    <row r="58" spans="1:32" s="47" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" s="47" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="43" t="s">
         <v>175</v>
       </c>
@@ -8476,7 +8331,7 @@
       <c r="AE58" s="45"/>
       <c r="AF58" s="45"/>
     </row>
-    <row r="59" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="27" t="s">
         <v>52</v>
       </c>
@@ -8512,13 +8367,13 @@
       <c r="AA59" s="44"/>
       <c r="AB59" s="44"/>
       <c r="AC59" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD59" s="44"/>
       <c r="AE59" s="44"/>
       <c r="AF59" s="44"/>
     </row>
-    <row r="60" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="27" t="s">
         <v>63</v>
       </c>
@@ -8556,7 +8411,7 @@
       <c r="AE60" s="45"/>
       <c r="AF60" s="45"/>
     </row>
-    <row r="61" spans="1:32" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" s="47" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="43" t="s">
         <v>65</v>
       </c>
@@ -8580,7 +8435,7 @@
         <v>40</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T61" s="3"/>
       <c r="U61" s="45"/>
@@ -8596,7 +8451,7 @@
       <c r="AE61" s="45"/>
       <c r="AF61" s="45"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="27" t="s">
         <v>66</v>
       </c>
@@ -8621,7 +8476,7 @@
       </c>
       <c r="S62" s="3"/>
       <c r="T62" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -8634,15 +8489,15 @@
       <c r="AA62" s="45"/>
       <c r="AB62" s="45"/>
       <c r="AC62" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD62" s="45"/>
       <c r="AE62" s="45"/>
       <c r="AF62" s="45"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="3"/>
@@ -8665,7 +8520,7 @@
       </c>
       <c r="S63" s="3"/>
       <c r="T63" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
@@ -8680,7 +8535,7 @@
       <c r="AE63" s="45"/>
       <c r="AF63" s="45"/>
     </row>
-    <row r="64" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="27" t="s">
         <v>64</v>
       </c>
@@ -8704,10 +8559,10 @@
         <v>40</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -8722,7 +8577,7 @@
       <c r="AE64" s="45"/>
       <c r="AF64" s="45"/>
     </row>
-    <row r="65" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="27" t="s">
         <v>67</v>
       </c>
@@ -8746,7 +8601,7 @@
         <v>40</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T65" s="45"/>
       <c r="U65" s="3"/>
@@ -8762,7 +8617,7 @@
       <c r="AE65" s="45"/>
       <c r="AF65" s="45"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="27" t="s">
         <v>68</v>
       </c>
@@ -8786,7 +8641,7 @@
         <v>40</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
@@ -8802,7 +8657,7 @@
       <c r="AE66" s="45"/>
       <c r="AF66" s="45"/>
     </row>
-    <row r="67" spans="1:32" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" s="47" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="43" t="s">
         <v>57</v>
       </c>
@@ -8840,9 +8695,9 @@
       <c r="AE67" s="45"/>
       <c r="AF67" s="45"/>
     </row>
-    <row r="68" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="3"/>
@@ -8864,7 +8719,7 @@
         <v>40</v>
       </c>
       <c r="S68" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
@@ -8880,7 +8735,7 @@
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
     </row>
-    <row r="69" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="27" t="s">
         <v>70</v>
       </c>
@@ -8918,7 +8773,7 @@
       <c r="AE69" s="45"/>
       <c r="AF69" s="45"/>
     </row>
-    <row r="70" spans="1:32" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" s="47" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
         <v>62</v>
       </c>
@@ -8956,7 +8811,7 @@
       <c r="AE70" s="45"/>
       <c r="AF70" s="45"/>
     </row>
-    <row r="71" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="27" t="s">
         <v>72</v>
       </c>
@@ -8973,7 +8828,7 @@
       <c r="J71" s="45"/>
       <c r="K71" s="45"/>
       <c r="L71" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M71" s="45"/>
       <c r="N71" s="45"/>
@@ -8996,7 +8851,7 @@
       <c r="AE71" s="45"/>
       <c r="AF71" s="45"/>
     </row>
-    <row r="72" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="27" t="s">
         <v>73</v>
       </c>
@@ -9030,13 +8885,13 @@
       <c r="AA72" s="50"/>
       <c r="AB72" s="50"/>
       <c r="AC72" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD72" s="45"/>
       <c r="AE72" s="45"/>
       <c r="AF72" s="45"/>
     </row>
-    <row r="73" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="27" t="s">
         <v>74</v>
       </c>
@@ -9053,7 +8908,7 @@
       <c r="J73" s="45"/>
       <c r="K73" s="45"/>
       <c r="L73" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M73" s="45"/>
       <c r="N73" s="45"/>
@@ -9076,7 +8931,7 @@
       <c r="AE73" s="45"/>
       <c r="AF73" s="45"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="27" t="s">
         <v>75</v>
       </c>
@@ -9105,7 +8960,7 @@
       <c r="U74" s="45"/>
       <c r="V74" s="45"/>
       <c r="W74" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X74" s="46"/>
       <c r="Y74" s="45"/>
@@ -9117,7 +8972,7 @@
       <c r="AE74" s="45"/>
       <c r="AF74" s="45"/>
     </row>
-    <row r="75" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="27" t="s">
         <v>76</v>
       </c>
@@ -9138,7 +8993,7 @@
       <c r="N75" s="45"/>
       <c r="O75" s="45"/>
       <c r="P75" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q75" s="45"/>
       <c r="R75" s="45"/>
@@ -9157,7 +9012,7 @@
       <c r="AE75" s="45"/>
       <c r="AF75" s="45"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="27" t="s">
         <v>77</v>
       </c>
@@ -9178,7 +9033,7 @@
       <c r="N76" s="45"/>
       <c r="O76" s="45"/>
       <c r="P76" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q76" s="45"/>
       <c r="R76" s="45"/>
@@ -9197,7 +9052,7 @@
       <c r="AE76" s="45"/>
       <c r="AF76" s="45"/>
     </row>
-    <row r="77" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="27" t="s">
         <v>78</v>
       </c>
@@ -9218,7 +9073,7 @@
       <c r="N77" s="45"/>
       <c r="O77" s="45"/>
       <c r="P77" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q77" s="45"/>
       <c r="R77" s="45"/>
@@ -9237,7 +9092,7 @@
       <c r="AE77" s="45"/>
       <c r="AF77" s="45"/>
     </row>
-    <row r="78" spans="1:32" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" s="47" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="43" t="s">
         <v>79</v>
       </c>
@@ -9252,7 +9107,7 @@
       <c r="H78" s="45"/>
       <c r="I78" s="45"/>
       <c r="J78" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K78" s="45"/>
       <c r="L78" s="45"/>
@@ -9279,7 +9134,7 @@
       <c r="AE78" s="45"/>
       <c r="AF78" s="45"/>
     </row>
-    <row r="79" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="27" t="s">
         <v>80</v>
       </c>
@@ -9294,7 +9149,7 @@
       <c r="H79" s="45"/>
       <c r="I79" s="45"/>
       <c r="J79" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K79" s="45"/>
       <c r="L79" s="45"/>
@@ -9321,7 +9176,7 @@
       <c r="AE79" s="45"/>
       <c r="AF79" s="45"/>
     </row>
-    <row r="80" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="27" t="s">
         <v>81</v>
       </c>
@@ -9361,7 +9216,7 @@
       <c r="AE80" s="45"/>
       <c r="AF80" s="45"/>
     </row>
-    <row r="81" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="27" t="s">
         <v>82</v>
       </c>
@@ -9399,7 +9254,7 @@
       <c r="AE81" s="45"/>
       <c r="AF81" s="45"/>
     </row>
-    <row r="82" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="27" t="s">
         <v>83</v>
       </c>
@@ -9433,13 +9288,13 @@
       <c r="AA82" s="45"/>
       <c r="AB82" s="45"/>
       <c r="AC82" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD82" s="45"/>
       <c r="AE82" s="45"/>
       <c r="AF82" s="45"/>
     </row>
-    <row r="83" spans="1:32" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" s="47" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="43" t="s">
         <v>85</v>
       </c>
@@ -9479,7 +9334,7 @@
       <c r="AE83" s="45"/>
       <c r="AF83" s="45"/>
     </row>
-    <row r="84" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="27" t="s">
         <v>176</v>
       </c>
@@ -9517,7 +9372,7 @@
       <c r="AE84" s="45"/>
       <c r="AF84" s="45"/>
     </row>
-    <row r="85" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="27" t="s">
         <v>87</v>
       </c>
@@ -9536,7 +9391,7 @@
         <v>39</v>
       </c>
       <c r="N85" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O85" s="45"/>
       <c r="P85" s="45"/>
@@ -9557,7 +9412,7 @@
       <c r="AE85" s="45"/>
       <c r="AF85" s="45"/>
     </row>
-    <row r="86" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="27" t="s">
         <v>88</v>
       </c>
@@ -9577,7 +9432,7 @@
       </c>
       <c r="N86" s="45"/>
       <c r="O86" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P86" s="45"/>
       <c r="Q86" s="45"/>
@@ -9597,9 +9452,9 @@
       <c r="AE86" s="45"/>
       <c r="AF86" s="45"/>
     </row>
-    <row r="87" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" s="44"/>
       <c r="C87" s="45"/>
@@ -9635,9 +9490,9 @@
       <c r="AE87" s="45"/>
       <c r="AF87" s="45"/>
     </row>
-    <row r="88" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>0</v>
@@ -9673,9 +9528,9 @@
       <c r="AE88" s="44"/>
       <c r="AF88" s="44"/>
     </row>
-    <row r="89" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>0</v>
@@ -9711,9 +9566,9 @@
       <c r="AE89" s="44"/>
       <c r="AF89" s="44"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>0</v>
@@ -9749,9 +9604,9 @@
       <c r="AE90" s="44"/>
       <c r="AF90" s="44"/>
     </row>
-    <row r="91" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>0</v>
@@ -9787,9 +9642,9 @@
       <c r="AE91" s="44"/>
       <c r="AF91" s="44"/>
     </row>
-    <row r="92" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -9825,7 +9680,7 @@
       <c r="AE92" s="44"/>
       <c r="AF92" s="44"/>
     </row>
-    <row r="93" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>196</v>
       </c>
@@ -9864,7 +9719,13 @@
       <c r="AF93" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF93" xr:uid="{51208281-3E24-4654-87D0-5BF2E8C3944E}"/>
+  <autoFilter ref="A1:AF93" xr:uid="{51208281-3E24-4654-87D0-5BF2E8C3944E}">
+    <filterColumn colId="31">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9878,9 +9739,6 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A18" sqref="A18"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
-      <selection activeCell="A27" sqref="A27:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9948,7 +9806,7 @@
         <v>148</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>149</v>
@@ -10480,7 +10338,7 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG13" s="3"/>
     </row>
@@ -10557,7 +10415,7 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG15" s="45"/>
     </row>
@@ -10638,7 +10496,7 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
     </row>
-    <row r="18" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
         <v>129</v>
       </c>
@@ -10652,7 +10510,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -10681,7 +10539,7 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="45"/>
     </row>
-    <row r="19" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>130</v>
       </c>
@@ -10695,7 +10553,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
@@ -10719,7 +10577,7 @@
       <c r="AA19" s="44"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD19" s="44"/>
       <c r="AE19" s="44"/>
@@ -10749,7 +10607,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -10790,7 +10648,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
@@ -10817,7 +10675,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="41" t="s">
@@ -10825,7 +10683,7 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -10862,7 +10720,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="41" t="s">
@@ -10870,7 +10728,7 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
@@ -10920,7 +10778,7 @@
       <c r="O24" s="45"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -10975,7 +10833,7 @@
       <c r="AC25" s="45"/>
       <c r="AD25" s="45"/>
       <c r="AE25" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG25" s="45"/>
     </row>
@@ -11015,12 +10873,12 @@
       <c r="AC26" s="45"/>
       <c r="AD26" s="45"/>
       <c r="AE26" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF26" s="45"/>
       <c r="AG26" s="45"/>
     </row>
-    <row r="27" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
         <v>136</v>
       </c>
@@ -11058,7 +10916,7 @@
       <c r="AE27" s="45"/>
       <c r="AF27" s="45"/>
       <c r="AG27" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -11100,7 +10958,7 @@
       <c r="AF28" s="45"/>
       <c r="AG28" s="45"/>
     </row>
-    <row r="29" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
         <v>138</v>
       </c>
@@ -11140,12 +10998,12 @@
       <c r="AE29" s="45"/>
       <c r="AF29" s="45"/>
       <c r="AG29" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="45"/>
@@ -11176,7 +11034,7 @@
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
       <c r="AB30" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC30" s="45"/>
       <c r="AD30" s="45"/>
@@ -11219,7 +11077,7 @@
       <c r="AC31" s="45"/>
       <c r="AD31" s="45"/>
       <c r="AE31" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF31" s="45"/>
       <c r="AG31" s="45"/>
@@ -11311,7 +11169,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
@@ -11395,7 +11253,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -11711,7 +11569,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AG38" xr:uid="{A1E1B2C1-252D-4F23-9245-9845FA767597}">
-    <filterColumn colId="32">
+    <filterColumn colId="8">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>

--- a/Question Mapping.xlsx
+++ b/Question Mapping.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D42C5F-9554-4479-8CA7-86B400D393A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7112F7A5-5740-4E00-A2CA-1A2FE43AC4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23220" yWindow="672" windowWidth="20592" windowHeight="12072" xr2:uid="{A6574B0E-7A8B-4CB0-B81E-366180133FA1}"/>
+    <workbookView xWindow="45972" yWindow="492" windowWidth="13176" windowHeight="22656" xr2:uid="{A6574B0E-7A8B-4CB0-B81E-366180133FA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Strategy" sheetId="1" r:id="rId1"/>
     <sheet name="Q_hs_pre" sheetId="4" r:id="rId2"/>
     <sheet name="Q_hs_post" sheetId="15" r:id="rId3"/>
     <sheet name="Q_ci" sheetId="16" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Q_ci!$A$1:$AG$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Q_hs_post!$A$1:$AF$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Q_hs_pre!$A$1:$AF$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$D$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Strategy!$F$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="298">
   <si>
     <t xml:space="preserve">G </t>
   </si>
@@ -413,9 +413,6 @@
     <t>In what way has minigrid power made you or your family more productive?</t>
   </si>
   <si>
-    <t>Interval</t>
-  </si>
-  <si>
     <t>School Attendance per gender</t>
   </si>
   <si>
@@ -545,21 +542,12 @@
     <t>Employement: Job availability</t>
   </si>
   <si>
-    <t>Categorical - Ordinal</t>
-  </si>
-  <si>
-    <t>Ratio</t>
-  </si>
-  <si>
     <t>Paired t-Test</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Categorical: Ordinal</t>
-  </si>
-  <si>
     <t>How many hours of light per day do you currently have at home?</t>
   </si>
   <si>
@@ -647,9 +635,6 @@
     <t>Employement (Jobs/Business) per Gender</t>
   </si>
   <si>
-    <t>Categorical - Nominal</t>
-  </si>
-  <si>
     <t>Time spent cooking</t>
   </si>
   <si>
@@ -659,9 +644,6 @@
     <t>Has your household income changed since your connection to minigrid power?</t>
   </si>
   <si>
-    <t>Measurement Level</t>
-  </si>
-  <si>
     <t>Sample(s)</t>
   </si>
   <si>
@@ -680,92 +662,393 @@
     <t>Employment (Jobs/Business) per Gender</t>
   </si>
   <si>
-    <t>Are any female household members business owners?</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>A. Increase in light hours</t>
-  </si>
-  <si>
-    <t>B. Increase in work hours</t>
-  </si>
-  <si>
-    <t>C. Increase in business operations</t>
-  </si>
-  <si>
-    <t>D. Increase in education</t>
-  </si>
-  <si>
-    <t>A. Feeling more safe</t>
-  </si>
-  <si>
-    <t>i. Decrease in theft</t>
-  </si>
-  <si>
-    <t>ii. Less need for unsafe travel</t>
-  </si>
-  <si>
-    <t>iii. More community lighting</t>
-  </si>
-  <si>
-    <t>A. Greater access to clinic</t>
-  </si>
-  <si>
-    <t>B. Eliminating kerosene</t>
-  </si>
-  <si>
-    <t>C. Improved healthcare</t>
-  </si>
-  <si>
-    <t>D. Water purification</t>
-  </si>
-  <si>
-    <t>ECONOMIC GROWTH</t>
-  </si>
-  <si>
-    <t>A. Increase in income</t>
-  </si>
-  <si>
-    <t>B. Increase in savings</t>
-  </si>
-  <si>
-    <t>C. Increase in work hours</t>
-  </si>
-  <si>
-    <t>D. Creation of Jobs</t>
-  </si>
-  <si>
-    <t>E. Creation of Businesses</t>
-  </si>
-  <si>
-    <t>Linear Regression</t>
-  </si>
-  <si>
-    <t>Logistic Regression</t>
-  </si>
-  <si>
-    <t>Transformation</t>
-  </si>
-  <si>
-    <t>Obtain proportions by site levels</t>
-  </si>
-  <si>
     <t>Decrease or elimination of time spend collecting water/household chores</t>
   </si>
   <si>
     <t>Access to education</t>
   </si>
   <si>
-    <t>Binary</t>
+    <t>Eliminating kerosene</t>
+  </si>
+  <si>
+    <t>Improved healthcare</t>
+  </si>
+  <si>
+    <t>Water purification</t>
+  </si>
+  <si>
+    <t>Income/Revenues</t>
+  </si>
+  <si>
+    <t>Job Creation</t>
+  </si>
+  <si>
+    <t>Local Business Creation</t>
+  </si>
+  <si>
+    <t>Field Value (Encoding if relevant)</t>
+  </si>
+  <si>
+    <t>"Yes, it's increased" = 1
+"Yes, it's decreased" = -1,
+"No, it's the same" = 0</t>
+  </si>
+  <si>
+    <t>"less than 1 hour" = 1,
+ "1-2 hours" = 2,
+"2-3 hours" = 3,
+"3-4 hours" = 4,
+ "greater than 4 hours" = 5</t>
+  </si>
+  <si>
+    <t>"less than 1 hour" = 1,
+ "1-2 hours" = 2,
+"3-5 hours" = 3,
+ "greater than 4 hours" = 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "None",
+ "Adult Male",
+ "Adult Female"</t>
+  </si>
+  <si>
+    <t>Created binary column with 0 and 1 given presence of female business owner</t>
+  </si>
+  <si>
+    <t>"Yes, they have increased" = 1,
+"Yes, they have decreased" = -1,
+"No, it is pretty much the same" = 0,</t>
+  </si>
+  <si>
+    <t>"Yes, overall school performance is better" = 1,
+ "Yes, overall school performance is worse" = -1,
+"No, there has not been a noticeable change" = 0</t>
+  </si>
+  <si>
+    <t>"Yes, it's gotten better" = 1,
+ "Yes, it's gotten worse" = -1,
+ "No, it's the same" = 0</t>
+  </si>
+  <si>
+    <t>"yes" = 1,
+ "no" = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Clinic now has a refrigerator for vaccines",
+"Clinic stays open longer hours",
+"Clinic can see more patients",
+"Wait times are shorter",
+"None of these"</t>
+  </si>
+  <si>
+    <t>"Yes, it has increased" = 1
+"Yes, it has decreased" = -1,
+"No, it has the same" = 0</t>
+  </si>
+  <si>
+    <t>"Potential theft",
+"Unsafe travel to obtain, water, supplies or charging phones",
+"Unsafe travel to obtain, water, supplies and charging phones",
+"Lack of community lighting",
+"Other",
+"I don't feel unsafe"</t>
+  </si>
+  <si>
+    <t>Any value</t>
+  </si>
+  <si>
+    <t>"Yes, we have added workers" = 1,
+"Yes, we have lost workers" = -1,
+"No, the number has remained the same" = 0</t>
+  </si>
+  <si>
+    <t>Any discreate values greater or equal to 0</t>
+  </si>
+  <si>
+    <t>Group by site and divide by no. of customers to obtain a proportion</t>
+  </si>
+  <si>
+    <t>Ind. Var(s) at Site Level</t>
+  </si>
+  <si>
+    <t>Histogram/BoxPlot</t>
+  </si>
+  <si>
+    <t>Obtain % of the positive responses by site levels</t>
+  </si>
+  <si>
+    <t>Linear Regression T-test</t>
+  </si>
+  <si>
+    <t>McNemar Test</t>
+  </si>
+  <si>
+    <t>Logistic Regression Wald Test</t>
+  </si>
+  <si>
+    <t>Histogram/BoxPlot, Scatterplot</t>
+  </si>
+  <si>
+    <t>Customer Consumption (kwH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Very unsafe" = 1,
+"Somewhat unsafe"= 2,
+"Neither safe nor unsafe"= 3,
+"Somewhat safe"= 4,
+"Very safe"= 5,</t>
+  </si>
+  <si>
+    <t>Create a column counting no. of all business owners</t>
+  </si>
+  <si>
+    <t>Created a column counting the number of added services</t>
+  </si>
+  <si>
+    <t>Null Hypothesis</t>
+  </si>
+  <si>
+    <t>(1) Create a 2x2 contigency table (2) Create a conversion colum from pre to post and Obtain % by site</t>
+  </si>
+  <si>
+    <t>H0: No correlation between the independent variable and % at site level; suggesting that the coefficient = 0</t>
+  </si>
+  <si>
+    <t>(1) H0: No correlation between the independent variable and % at site level; suggesting that the coefficient = 0                                                            (2) H0: No correlation between the independent variable and count at customer level (commercial); suggesting that the coefficient = 0</t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>Time Frame</t>
+  </si>
+  <si>
+    <t>Earliest Pre-surveys = June 2021</t>
+  </si>
+  <si>
+    <t>Latest Post-survey = Feb 2023</t>
+  </si>
+  <si>
+    <t>For C&amp;I, was there an increase in productivity?</t>
+  </si>
+  <si>
+    <t>How did health servcies improve after the minigrid installation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did residents feel safer? </t>
+  </si>
+  <si>
+    <t>Was there an increase in economic activity with new jobs/local businesses?</t>
+  </si>
+  <si>
+    <t>How did it affect the level of income/earnings for household and C&amp;I respectively?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) H0: Ind. Var coefficient = 0 in logistic regression                                                                   (2) H0: P(pre= "No" and post= "Yes") = P(pre= "Yes" and and post= "No").                                            (3) H0: Ind. Var coefficient = 0 in linear regression    </t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>H0: No changes in number of kerosene lamps used between pre and post</t>
+  </si>
+  <si>
+    <t>H0: No changes in light hours between pre and post survey</t>
+  </si>
+  <si>
+    <t>H0: No change in monthly income. Sample mean from pre-survey is not different from post-survey</t>
+  </si>
+  <si>
+    <t>h0: No change in monthly income between pre and post periods</t>
+  </si>
+  <si>
+    <t>How did the minigrid affect school enrollment?</t>
+  </si>
+  <si>
+    <t>Did residents have access to clean drinking water as a result?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Obtain % of the positive responses by site levels                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2) Make a column of 0 for all "non-increase" and 1 for "increase"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) H0: Ind. Var coefficient = 0 in linear regression                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(2) H0: Ind. Var coefficient = 0 in logistic regression     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Create a column with -1, 0, and 1 for directional change between pre and post and obtain % site level                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2) Make a column of 0 for all "non-increase" and 1 for "increase"</t>
+    </r>
+  </si>
+  <si>
+    <t>Did the minigrid installation support economic empowerment for women?</t>
+  </si>
+  <si>
+    <t>Did schools/household observe an improvement in students' performance?</t>
+  </si>
+  <si>
+    <t>How did the minigrid affect exposure to unhealthy energy sources like kerosene?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) H0: Ind. Var coefficient = 0 in linear regression                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(2) H0: Ind. Var coefficient = 0 in logistic regression     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Pie / Bar Chart</t>
+  </si>
+  <si>
+    <t>Values between 0 and 24</t>
+  </si>
+  <si>
+    <t>Values greater or equal to 0</t>
+  </si>
+  <si>
+    <t>Independent Variables</t>
+  </si>
+  <si>
+    <t>No. of Customers</t>
+  </si>
+  <si>
+    <t>PV Size</t>
+  </si>
+  <si>
+    <t>Consumption (kwH) - Site &amp; Customer Level</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>For Household, was there a notable difference in productivity; meaning the time spent doing domestic activity with access to electricty?</t>
+  </si>
+  <si>
+    <t>Descriptive (Visual)</t>
+  </si>
+  <si>
+    <t>Some Questions from Impact Investors</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Do for each "increase" and "decrease"</t>
+  </si>
+  <si>
+    <t>Subgroup</t>
+  </si>
+  <si>
+    <t>Group by categories, determine the effect size based on rank</t>
+  </si>
+  <si>
+    <t>Confidence Interval</t>
+  </si>
+  <si>
+    <t>(2) Create a 2x2 contigency table (3) Create a conversion colum from pre to post and Obtain % by site</t>
+  </si>
+  <si>
+    <t>(2) Create a 2x2 contigency table (2) Create a conversion colum from pre to post and Obtain % by site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) H0: P(pre= "No" and post= "Yes") = P(pre= "Yes" and and post= "No").                                            (3) H0: Ind. Var coefficient = 0 in linear regression    </t>
+  </si>
+  <si>
+    <t>Obtain % by site</t>
+  </si>
+  <si>
+    <t>Add in post from initial</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Dependent var = diff between pre and post</t>
+  </si>
+  <si>
+    <t>Chi-sqaure goodness of fit, ?</t>
+  </si>
+  <si>
+    <t>Transform into count from each choice selected</t>
+  </si>
+  <si>
+    <t>Dep var = diff</t>
+  </si>
+  <si>
+    <t>Subgroup by "household_income_change"</t>
+  </si>
+  <si>
+    <t>Binarized as "None" and "Not None" and perform McNemar</t>
+  </si>
+  <si>
+    <t>Run McNemar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,8 +1081,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,8 +1138,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -866,11 +1174,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -901,21 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -953,24 +1255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
@@ -985,10 +1269,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1008,45 +1288,74 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,730 +1670,1277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C686D34-E6E7-42EB-A000-4AF5B0346840}">
-  <dimension ref="B1:I61"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="38.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="4" max="4" width="40.7265625" customWidth="1"/>
+    <col min="5" max="5" width="74.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="54.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="51.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="53.90625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" customWidth="1"/>
+    <col min="16" max="16" width="16.6328125" customWidth="1"/>
+    <col min="17" max="17" width="14.08984375" customWidth="1"/>
+    <col min="18" max="18" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="D1" s="56" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F1" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+    </row>
+    <row r="6" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q6" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="56" t="s">
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="K9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="E12" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E14" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E15" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P15" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q15" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E16" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+    </row>
+    <row r="17" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E17" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R17" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E18" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C3" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C4" s="28" t="s">
+      <c r="J18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E19" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E21" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="R21" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="55"/>
+      <c r="E22" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="55"/>
+      <c r="E23" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="E24" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E25" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E27" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q27" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E28" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="35"/>
+    </row>
+    <row r="29" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="E29" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C5" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="C6" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="C7" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="C8" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C9" s="28" t="s">
+      <c r="K29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M29" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P29" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q29" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R29" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E30" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P30" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q30" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R30" s="35"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E31" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E32" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+    </row>
+    <row r="33" spans="5:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E33" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P33" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q33" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R33" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="5:18" ht="87" x14ac:dyDescent="0.35">
+      <c r="E34" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E35" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+    </row>
+    <row r="36" spans="5:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="E36" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="O36" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="5:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E37" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P37" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q37" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R37" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E38" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+    </row>
+    <row r="39" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E39" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="C10" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C11" s="47" t="s">
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+    </row>
+    <row r="40" spans="5:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E40" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>201</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M40" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+    </row>
+    <row r="41" spans="5:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E41" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P41" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q41" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R41" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="5:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E42" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P42" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q42" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R42" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E43" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+    </row>
+    <row r="44" spans="5:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E44" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M44" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P44" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q44" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R44" s="35"/>
+    </row>
+    <row r="45" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E45" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="D11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="C17" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="C19" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="C20" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" t="s">
-        <v>208</v>
-      </c>
-      <c r="E20" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="C26" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" t="s">
-        <v>200</v>
-      </c>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C27" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C28" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C29" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C30" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C31" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="38"/>
-    </row>
-    <row r="32" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="C32" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" t="s">
-        <v>167</v>
-      </c>
-      <c r="G32" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C33" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C34" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C40" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" t="s">
-        <v>207</v>
-      </c>
-      <c r="E40" t="s">
-        <v>200</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C41" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="38"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="G43" s="38"/>
-    </row>
-    <row r="44" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="1" t="s">
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+    </row>
+    <row r="46" spans="5:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E46" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" t="s">
+        <v>203</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" t="s">
-        <v>166</v>
-      </c>
-      <c r="G44" s="38"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="38"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" t="s">
-        <v>167</v>
-      </c>
-      <c r="G46" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B47" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" t="s">
-        <v>167</v>
-      </c>
-      <c r="G47" s="38"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C48" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C49" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" t="s">
-        <v>209</v>
-      </c>
-      <c r="E49" t="s">
-        <v>200</v>
-      </c>
-      <c r="G49" s="38"/>
-    </row>
-    <row r="50" spans="3:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C50" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" t="s">
-        <v>200</v>
-      </c>
-      <c r="G50" s="38"/>
-    </row>
-    <row r="51" spans="3:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C51" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" t="s">
-        <v>200</v>
-      </c>
-      <c r="G51" s="38"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C52" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="G52" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C53" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s">
-        <v>207</v>
-      </c>
-      <c r="E53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G53" s="38"/>
-    </row>
-    <row r="54" spans="3:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C54" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" t="s">
-        <v>212</v>
-      </c>
-      <c r="E54" t="s">
-        <v>200</v>
-      </c>
-      <c r="G54" s="38"/>
-    </row>
-    <row r="55" spans="3:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C55" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" t="s">
-        <v>206</v>
-      </c>
-      <c r="E55" t="s">
-        <v>200</v>
-      </c>
-      <c r="G55" s="38"/>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C56" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" t="s">
-        <v>206</v>
-      </c>
-      <c r="E56" t="s">
-        <v>200</v>
-      </c>
-      <c r="G56" s="38"/>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C57" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="G57" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C58" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C59" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" t="s">
-        <v>206</v>
-      </c>
-      <c r="E59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C60" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" t="s">
-        <v>209</v>
-      </c>
-      <c r="E60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C61" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" t="s">
-        <v>167</v>
-      </c>
+      <c r="I46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P46" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q46" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R46" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+    </row>
+    <row r="48" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
     </row>
   </sheetData>
+  <autoFilter ref="F1:R1" xr:uid="{8C686D34-E6E7-42EB-A000-4AF5B0346840}"/>
+  <mergeCells count="2">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A22:A23"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2092,11 +2948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BF1EB5-7EAC-4263-A4B1-E5BF1875FF7F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2120,7 +2975,7 @@
     <col min="20" max="20" width="12.08984375" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
     <col min="23" max="23" width="12.08984375" customWidth="1"/>
-    <col min="24" max="24" width="12.54296875" style="18" customWidth="1"/>
+    <col min="24" max="24" width="12.54296875" style="13" customWidth="1"/>
     <col min="25" max="25" width="11.6328125" customWidth="1"/>
     <col min="26" max="26" width="16.6328125" customWidth="1"/>
     <col min="27" max="29" width="11.90625" customWidth="1"/>
@@ -2130,105 +2985,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="P1" s="34" t="s">
+      <c r="R1" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="W1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="X1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="X1" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AA1" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AC1" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD1" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="AC1" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AE1" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AF1" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AF1" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2255,7 +3110,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="16"/>
+      <c r="X2" s="11"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -2265,8 +3120,8 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2293,7 +3148,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="16"/>
+      <c r="X3" s="11"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -2303,8 +3158,8 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2331,7 +3186,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="16"/>
+      <c r="X4" s="11"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
@@ -2341,8 +3196,8 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2369,7 +3224,7 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="16"/>
+      <c r="X5" s="11"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -2379,8 +3234,8 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2407,7 +3262,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="16"/>
+      <c r="X6" s="11"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
@@ -2417,9 +3272,9 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>181</v>
+    <row r="7" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -2445,7 +3300,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="16"/>
+      <c r="X7" s="11"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -2455,8 +3310,8 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2483,7 +3338,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="16"/>
+      <c r="X8" s="11"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -2493,8 +3348,8 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2521,7 +3376,7 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="11"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -2531,8 +3386,8 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2559,7 +3414,7 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="11"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
@@ -2569,8 +3424,8 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2597,7 +3452,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="11"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -2607,8 +3462,8 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2635,7 +3490,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="11"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -2645,8 +3500,8 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2673,7 +3528,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="16"/>
+      <c r="X13" s="11"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -2683,8 +3538,8 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2711,7 +3566,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="16"/>
+      <c r="X14" s="11"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
@@ -2721,8 +3576,8 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2750,7 +3605,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="16"/>
+      <c r="X15" s="11"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
@@ -2761,7 +3616,7 @@
       <c r="AF15" s="3"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2770,7 +3625,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="42"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -2788,7 +3643,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="16"/>
+      <c r="X16" s="11"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -2797,11 +3652,11 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2827,7 +3682,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="16"/>
+      <c r="X17" s="11"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -2838,7 +3693,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="5"/>
@@ -2863,7 +3718,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="16"/>
+      <c r="X18" s="11"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -2872,11 +3727,11 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="5"/>
@@ -2912,14 +3767,14 @@
       <c r="AF19" s="5"/>
     </row>
     <row r="20" spans="1:32" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2937,7 +3792,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-      <c r="X20" s="17" t="s">
+      <c r="X20" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y20" s="3"/>
@@ -2948,11 +3803,11 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="5"/>
@@ -2977,7 +3832,7 @@
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y21" s="5"/>
@@ -2990,7 +3845,7 @@
       <c r="AF21" s="5"/>
     </row>
     <row r="22" spans="1:32" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5"/>
@@ -3015,7 +3870,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="17" t="s">
+      <c r="X22" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y22" s="3"/>
@@ -3026,11 +3881,11 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="5"/>
@@ -3055,22 +3910,22 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="17" t="s">
+      <c r="X23" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AC23" s="6"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="5"/>
@@ -3095,7 +3950,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="16"/>
+      <c r="X24" s="11"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -3105,8 +3960,8 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A25" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3133,7 +3988,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="16"/>
+      <c r="X25" s="11"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
@@ -3143,8 +3998,8 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="5"/>
@@ -3171,7 +4026,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="16"/>
+      <c r="X26" s="11"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
@@ -3181,8 +4036,8 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A27" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="5"/>
@@ -3209,7 +4064,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="16"/>
+      <c r="X27" s="11"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
@@ -3219,8 +4074,8 @@
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="5"/>
@@ -3247,7 +4102,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="16"/>
+      <c r="X28" s="11"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
@@ -3257,8 +4112,8 @@
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
     </row>
-    <row r="29" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="5"/>
@@ -3285,7 +4140,7 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="16"/>
+      <c r="X29" s="11"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
@@ -3295,8 +4150,8 @@
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="5"/>
@@ -3304,7 +4159,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3325,7 +4180,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-      <c r="X30" s="16"/>
+      <c r="X30" s="11"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
@@ -3335,8 +4190,8 @@
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="5"/>
@@ -3363,7 +4218,7 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="16"/>
+      <c r="X31" s="11"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
@@ -3373,8 +4228,8 @@
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
     </row>
-    <row r="32" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="5"/>
@@ -3409,8 +4264,8 @@
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
     </row>
-    <row r="33" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="5"/>
@@ -3418,7 +4273,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3439,7 +4294,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-      <c r="X33" s="16"/>
+      <c r="X33" s="11"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
@@ -3449,8 +4304,8 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="5"/>
@@ -3485,8 +4340,8 @@
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
     </row>
-    <row r="35" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="5"/>
@@ -3513,7 +4368,7 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="16"/>
+      <c r="X35" s="11"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
@@ -3523,8 +4378,8 @@
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="5"/>
@@ -3533,7 +4388,7 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3553,7 +4408,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="17" t="s">
+      <c r="X36" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y36" s="3"/>
@@ -3563,12 +4418,12 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3595,7 +4450,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="16"/>
+      <c r="X37" s="11"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
@@ -3605,8 +4460,8 @@
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3633,7 +4488,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-      <c r="X38" s="16"/>
+      <c r="X38" s="11"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
@@ -3643,8 +4498,8 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="5"/>
@@ -3671,7 +4526,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-      <c r="X39" s="16"/>
+      <c r="X39" s="11"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
@@ -3681,8 +4536,8 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
     </row>
-    <row r="40" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="5"/>
@@ -3709,7 +4564,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-      <c r="X40" s="16"/>
+      <c r="X40" s="11"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
@@ -3719,8 +4574,8 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="5"/>
@@ -3757,8 +4612,8 @@
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
     </row>
-    <row r="42" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
+    <row r="42" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="5"/>
@@ -3785,7 +4640,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="16"/>
+      <c r="X42" s="11"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
@@ -3795,8 +4650,8 @@
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="5"/>
@@ -3823,7 +4678,7 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-      <c r="X43" s="16"/>
+      <c r="X43" s="11"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
@@ -3833,8 +4688,8 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
     </row>
-    <row r="44" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="5"/>
@@ -3846,7 +4701,7 @@
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -3863,7 +4718,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="16"/>
+      <c r="X44" s="11"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
@@ -3873,8 +4728,8 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="5"/>
@@ -3886,7 +4741,7 @@
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -3913,8 +4768,8 @@
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
     </row>
-    <row r="46" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="27" t="s">
+    <row r="46" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="5"/>
@@ -3926,7 +4781,7 @@
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -3943,7 +4798,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-      <c r="X46" s="16"/>
+      <c r="X46" s="11"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
@@ -3953,8 +4808,8 @@
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
     </row>
-    <row r="47" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="27" t="s">
+    <row r="47" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="5"/>
@@ -3981,7 +4836,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-      <c r="X47" s="16"/>
+      <c r="X47" s="11"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
@@ -3991,8 +4846,8 @@
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
     </row>
-    <row r="48" spans="1:32" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="27" t="s">
+    <row r="48" spans="1:32" ht="58" x14ac:dyDescent="0.35">
+      <c r="A48" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="5"/>
@@ -4004,7 +4859,7 @@
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -4021,7 +4876,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-      <c r="X48" s="16"/>
+      <c r="X48" s="11"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
@@ -4031,8 +4886,8 @@
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
     </row>
-    <row r="49" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="5"/>
@@ -4058,7 +4913,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-      <c r="X49" s="16"/>
+      <c r="X49" s="11"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
@@ -4068,9 +4923,9 @@
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="27" t="s">
-        <v>183</v>
+    <row r="50" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4080,7 +4935,7 @@
         <v>38</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -4098,11 +4953,11 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="17" t="s">
+      <c r="X50" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y50" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
@@ -4112,8 +4967,8 @@
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
     </row>
-    <row r="51" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="27" t="s">
+    <row r="51" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="5"/>
@@ -4124,7 +4979,7 @@
         <v>38</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -4142,7 +4997,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-      <c r="X51" s="16"/>
+      <c r="X51" s="11"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
@@ -4152,9 +5007,9 @@
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
     </row>
-    <row r="52" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="27" t="s">
-        <v>184</v>
+    <row r="52" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="3"/>
@@ -4174,7 +5029,7 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -4182,7 +5037,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="42"/>
+      <c r="X52" s="29"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
@@ -4192,8 +5047,8 @@
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
     </row>
-    <row r="53" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="27" t="s">
+    <row r="53" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="5"/>
@@ -4214,7 +5069,7 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -4222,7 +5077,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-      <c r="X53" s="42"/>
+      <c r="X53" s="29"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
@@ -4232,8 +5087,8 @@
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
     </row>
-    <row r="54" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="27" t="s">
+    <row r="54" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="5"/>
@@ -4254,7 +5109,7 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -4262,7 +5117,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-      <c r="X54" s="17" t="s">
+      <c r="X54" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y54" s="5"/>
@@ -4270,14 +5125,14 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
     </row>
-    <row r="55" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="27" t="s">
+    <row r="55" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="5"/>
@@ -4304,7 +5159,7 @@
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="42"/>
+      <c r="X55" s="29"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
@@ -4314,8 +5169,8 @@
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
     </row>
-    <row r="56" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
+    <row r="56" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="5"/>
@@ -4342,7 +5197,7 @@
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="42"/>
+      <c r="X56" s="29"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
@@ -4352,8 +5207,8 @@
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
     </row>
-    <row r="57" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="27" t="s">
+    <row r="57" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="5"/>
@@ -4368,7 +5223,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -4382,7 +5237,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="42"/>
+      <c r="X57" s="29"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
@@ -4392,8 +5247,8 @@
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
     </row>
-    <row r="58" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="27" t="s">
+    <row r="58" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="5"/>
@@ -4420,7 +5275,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
-      <c r="X58" s="16"/>
+      <c r="X58" s="11"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
@@ -4430,8 +5285,8 @@
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
     </row>
-    <row r="59" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="27" t="s">
+    <row r="59" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="5"/>
@@ -4456,7 +5311,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-      <c r="X59" s="17" t="s">
+      <c r="X59" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y59" s="5"/>
@@ -4464,14 +5319,14 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
     </row>
-    <row r="60" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="27" t="s">
+    <row r="60" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="5"/>
@@ -4498,7 +5353,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="16"/>
+      <c r="X60" s="11"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
@@ -4508,8 +5363,8 @@
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
     </row>
-    <row r="61" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="27" t="s">
+    <row r="61" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="5"/>
@@ -4534,7 +5389,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-      <c r="X61" s="16"/>
+      <c r="X61" s="11"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
@@ -4544,8 +5399,8 @@
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
     </row>
-    <row r="62" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="27" t="s">
+    <row r="62" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="5"/>
@@ -4570,7 +5425,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-      <c r="X62" s="17" t="s">
+      <c r="X62" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y62" s="3"/>
@@ -4578,14 +5433,14 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
     </row>
-    <row r="63" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="27" t="s">
+    <row r="63" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="22" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="5"/>
@@ -4608,13 +5463,13 @@
         <v>40</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-      <c r="X63" s="16"/>
+      <c r="X63" s="11"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
@@ -4624,8 +5479,8 @@
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
     </row>
-    <row r="64" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="27" t="s">
+    <row r="64" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="5"/>
@@ -4649,12 +5504,12 @@
       </c>
       <c r="S64" s="3"/>
       <c r="T64" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-      <c r="X64" s="16"/>
+      <c r="X64" s="11"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
@@ -4664,8 +5519,8 @@
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
     </row>
-    <row r="65" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="27" t="s">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A65" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="5"/>
@@ -4689,12 +5544,12 @@
       </c>
       <c r="S65" s="3"/>
       <c r="T65" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-      <c r="X65" s="16"/>
+      <c r="X65" s="11"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
@@ -4704,8 +5559,8 @@
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
     </row>
-    <row r="66" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="27" t="s">
+    <row r="66" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="5"/>
@@ -4728,15 +5583,15 @@
         <v>40</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-      <c r="X66" s="16"/>
+      <c r="X66" s="11"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
@@ -4746,8 +5601,8 @@
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
     </row>
-    <row r="67" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="27" t="s">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A67" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="5"/>
@@ -4770,13 +5625,13 @@
         <v>40</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-      <c r="X67" s="16"/>
+      <c r="X67" s="11"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
@@ -4786,8 +5641,8 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
     </row>
-    <row r="68" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="27" t="s">
+    <row r="68" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="5"/>
@@ -4814,7 +5669,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-      <c r="X68" s="16"/>
+      <c r="X68" s="11"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
@@ -4824,15 +5679,15 @@
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
     </row>
-    <row r="69" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="27" t="s">
+    <row r="69" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="41" t="s">
+      <c r="F69" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G69" s="3"/>
@@ -4840,7 +5695,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="42"/>
+      <c r="L69" s="29"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -4852,7 +5707,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-      <c r="X69" s="16"/>
+      <c r="X69" s="11"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
@@ -4862,15 +5717,15 @@
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
     </row>
-    <row r="70" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="27" t="s">
+    <row r="70" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="41" t="s">
+      <c r="F70" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G70" s="3"/>
@@ -4890,7 +5745,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-      <c r="X70" s="16"/>
+      <c r="X70" s="11"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
@@ -4900,15 +5755,15 @@
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
     </row>
-    <row r="71" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="27" t="s">
+    <row r="71" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="41" t="s">
+      <c r="F71" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G71" s="3"/>
@@ -4916,8 +5771,8 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="41" t="s">
-        <v>169</v>
+      <c r="L71" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -4930,7 +5785,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-      <c r="X71" s="16"/>
+      <c r="X71" s="11"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
@@ -4940,8 +5795,8 @@
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
     </row>
-    <row r="72" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="27" t="s">
+    <row r="72" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="5"/>
@@ -4966,29 +5821,29 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-      <c r="X72" s="43" t="s">
+      <c r="X72" s="30" t="s">
         <v>16</v>
       </c>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
-      <c r="AC72" s="43" t="s">
-        <v>169</v>
+      <c r="AC72" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
     </row>
-    <row r="73" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="27" t="s">
+    <row r="73" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="41" t="s">
+      <c r="F73" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G73" s="3"/>
@@ -4996,8 +5851,8 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="41" t="s">
-        <v>169</v>
+      <c r="L73" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -5010,7 +5865,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-      <c r="X73" s="16"/>
+      <c r="X73" s="11"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
@@ -5020,8 +5875,8 @@
       <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
     </row>
-    <row r="74" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="27" t="s">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A74" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="5"/>
@@ -5035,23 +5890,23 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="45" t="s">
+      <c r="M74" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="44" t="s">
+      <c r="R74" s="31" t="s">
         <v>40</v>
       </c>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-      <c r="W74" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="X74" s="16"/>
+      <c r="W74" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="X74" s="11"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
@@ -5061,8 +5916,8 @@
       <c r="AE74" s="3"/>
       <c r="AF74" s="3"/>
     </row>
-    <row r="75" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="27" t="s">
+    <row r="75" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="5"/>
@@ -5076,13 +5931,13 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="45" t="s">
+      <c r="M75" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="45" t="s">
-        <v>169</v>
+      <c r="P75" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
@@ -5091,7 +5946,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-      <c r="X75" s="16"/>
+      <c r="X75" s="11"/>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
@@ -5101,8 +5956,8 @@
       <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
     </row>
-    <row r="76" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="27" t="s">
+    <row r="76" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="5"/>
@@ -5116,13 +5971,13 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="45" t="s">
+      <c r="M76" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="45" t="s">
-        <v>169</v>
+      <c r="P76" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
@@ -5131,7 +5986,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
-      <c r="X76" s="16"/>
+      <c r="X76" s="11"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
@@ -5141,8 +5996,8 @@
       <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
     </row>
-    <row r="77" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="27" t="s">
+    <row r="77" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="5"/>
@@ -5156,13 +6011,13 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="45" t="s">
+      <c r="M77" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="45" t="s">
-        <v>169</v>
+      <c r="P77" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
@@ -5171,7 +6026,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
-      <c r="X77" s="16"/>
+      <c r="X77" s="11"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
@@ -5181,26 +6036,26 @@
       <c r="AE77" s="3"/>
       <c r="AF77" s="3"/>
     </row>
-    <row r="78" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="27" t="s">
+    <row r="78" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="41" t="s">
+      <c r="F78" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="41" t="s">
-        <v>169</v>
+      <c r="J78" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="45" t="s">
+      <c r="M78" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="3"/>
@@ -5213,7 +6068,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
-      <c r="X78" s="16"/>
+      <c r="X78" s="11"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
@@ -5223,26 +6078,26 @@
       <c r="AE78" s="3"/>
       <c r="AF78" s="3"/>
     </row>
-    <row r="79" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="27" t="s">
+    <row r="79" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="22" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="41" t="s">
+      <c r="F79" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="41" t="s">
-        <v>169</v>
+      <c r="J79" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="45" t="s">
+      <c r="M79" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="3"/>
@@ -5255,7 +6110,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
-      <c r="X79" s="16"/>
+      <c r="X79" s="11"/>
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
@@ -5265,8 +6120,8 @@
       <c r="AE79" s="3"/>
       <c r="AF79" s="3"/>
     </row>
-    <row r="80" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="27" t="s">
+    <row r="80" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="5"/>
@@ -5280,7 +6135,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="45" t="s">
+      <c r="M80" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="3"/>
@@ -5293,7 +6148,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
-      <c r="X80" s="16"/>
+      <c r="X80" s="11"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
@@ -5303,8 +6158,8 @@
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
     </row>
-    <row r="81" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="27" t="s">
+    <row r="81" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B81" s="5"/>
@@ -5329,7 +6184,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
-      <c r="X81" s="16"/>
+      <c r="X81" s="11"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
@@ -5339,8 +6194,8 @@
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
     </row>
-    <row r="82" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="27" t="s">
+    <row r="82" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="5"/>
@@ -5365,29 +6220,29 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-      <c r="X82" s="26" t="s">
+      <c r="X82" s="21" t="s">
         <v>16</v>
       </c>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-      <c r="AC82" s="26" t="s">
-        <v>169</v>
+      <c r="AC82" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
     </row>
-    <row r="83" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="27" t="s">
+    <row r="83" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="41" t="s">
+      <c r="F83" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G83" s="3"/>
@@ -5407,7 +6262,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
-      <c r="X83" s="16"/>
+      <c r="X83" s="11"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
@@ -5417,8 +6272,8 @@
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
     </row>
-    <row r="84" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="27" t="s">
+    <row r="84" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B84" s="5"/>
@@ -5432,7 +6287,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
-      <c r="M84" s="45" t="s">
+      <c r="M84" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="3"/>
@@ -5445,7 +6300,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
-      <c r="X84" s="16"/>
+      <c r="X84" s="11"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
@@ -5455,8 +6310,8 @@
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
     </row>
-    <row r="85" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="27" t="s">
+    <row r="85" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B85" s="5"/>
@@ -5470,7 +6325,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-      <c r="M85" s="45" t="s">
+      <c r="M85" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="3"/>
@@ -5483,7 +6338,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
-      <c r="X85" s="16"/>
+      <c r="X85" s="11"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
@@ -5493,8 +6348,8 @@
       <c r="AE85" s="3"/>
       <c r="AF85" s="3"/>
     </row>
-    <row r="86" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="27" t="s">
+    <row r="86" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="22" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="5"/>
@@ -5508,11 +6363,11 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
-      <c r="M86" s="45" t="s">
+      <c r="M86" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="N86" s="45" t="s">
-        <v>169</v>
+      <c r="N86" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
@@ -5523,7 +6378,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
-      <c r="X86" s="16"/>
+      <c r="X86" s="11"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
       <c r="AA86" s="3"/>
@@ -5533,9 +6388,9 @@
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
     </row>
-    <row r="87" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="27" t="s">
-        <v>182</v>
+    <row r="87" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="3"/>
@@ -5548,12 +6403,12 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
-      <c r="M87" s="45" t="s">
+      <c r="M87" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N87" s="3"/>
-      <c r="O87" s="45" t="s">
-        <v>169</v>
+      <c r="O87" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
@@ -5563,7 +6418,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
-      <c r="X87" s="16"/>
+      <c r="X87" s="11"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
@@ -5574,13 +6429,7 @@
       <c r="AF87" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF87" xr:uid="{14BF1EB5-7EAC-4263-A4B1-E5BF1875FF7F}">
-    <filterColumn colId="31">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AF87" xr:uid="{14BF1EB5-7EAC-4263-A4B1-E5BF1875FF7F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5616,7 +6465,7 @@
     <col min="20" max="20" width="12.08984375" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
     <col min="23" max="23" width="12.08984375" customWidth="1"/>
-    <col min="24" max="24" width="12.54296875" style="18" customWidth="1"/>
+    <col min="24" max="24" width="12.54296875" style="13" customWidth="1"/>
     <col min="25" max="25" width="11.6328125" customWidth="1"/>
     <col min="26" max="26" width="16.6328125" customWidth="1"/>
     <col min="27" max="29" width="11.90625" customWidth="1"/>
@@ -5626,105 +6475,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="P1" s="34" t="s">
+      <c r="R1" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="W1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="X1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="X1" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AA1" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AC1" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD1" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="AC1" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AE1" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AF1" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AF1" s="36" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5751,7 +6600,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="16"/>
+      <c r="X2" s="11"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -5762,7 +6611,7 @@
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5789,7 +6638,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="16"/>
+      <c r="X3" s="11"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -5800,7 +6649,7 @@
       <c r="AF3" s="3"/>
     </row>
     <row r="4" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5827,7 +6676,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="16"/>
+      <c r="X4" s="11"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
@@ -5838,7 +6687,7 @@
       <c r="AF4" s="3"/>
     </row>
     <row r="5" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5865,7 +6714,7 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="16"/>
+      <c r="X5" s="11"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -5876,7 +6725,7 @@
       <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5903,7 +6752,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="16"/>
+      <c r="X6" s="11"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
@@ -5914,7 +6763,7 @@
       <c r="AF6" s="3"/>
     </row>
     <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5941,7 +6790,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="16"/>
+      <c r="X7" s="11"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -5952,7 +6801,7 @@
       <c r="AF7" s="3"/>
     </row>
     <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5979,7 +6828,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="16"/>
+      <c r="X8" s="11"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -5990,7 +6839,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -6017,7 +6866,7 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="11"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -6028,7 +6877,7 @@
       <c r="AF9" s="3"/>
     </row>
     <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -6055,7 +6904,7 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="11"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
@@ -6066,7 +6915,7 @@
       <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -6093,7 +6942,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="11"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -6104,7 +6953,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6131,7 +6980,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="11"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -6142,7 +6991,7 @@
       <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6169,7 +7018,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="16"/>
+      <c r="X13" s="11"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -6180,13 +7029,13 @@
       <c r="AF13" s="3"/>
     </row>
     <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="3"/>
@@ -6209,7 +7058,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="16"/>
+      <c r="X14" s="11"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
@@ -6220,7 +7069,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="5"/>
@@ -6244,7 +7093,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="17" t="s">
+      <c r="X15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y15" s="3"/>
@@ -6255,18 +7104,18 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="42"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -6284,7 +7133,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="17" t="s">
+      <c r="X16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y16" s="3"/>
@@ -6296,8 +7145,8 @@
       <c r="AE16" s="3"/>
     </row>
     <row r="17" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
-        <v>187</v>
+      <c r="A17" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
@@ -6320,14 +7169,14 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="17" t="s">
+      <c r="X17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
@@ -6335,7 +7184,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>99</v>
       </c>
       <c r="B18" s="5"/>
@@ -6360,7 +7209,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="17" t="s">
+      <c r="X18" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y18" s="3"/>
@@ -6373,7 +7222,7 @@
       <c r="AF18" s="3"/>
     </row>
     <row r="19" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="5"/>
@@ -6398,14 +7247,14 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="17" t="s">
+      <c r="X19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -6413,14 +7262,14 @@
       <c r="AF19" s="5"/>
     </row>
     <row r="20" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>100</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -6438,7 +7287,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-      <c r="X20" s="16"/>
+      <c r="X20" s="11"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
@@ -6449,7 +7298,7 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="22" t="s">
         <v>101</v>
       </c>
       <c r="B21" s="5"/>
@@ -6474,7 +7323,7 @@
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="16"/>
+      <c r="X21" s="11"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
@@ -6485,15 +7334,15 @@
       <c r="AF21" s="5"/>
     </row>
     <row r="22" spans="1:32" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>102</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>169</v>
+      <c r="D22" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6514,7 +7363,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="16"/>
+      <c r="X22" s="11"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -6525,15 +7374,15 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="22" t="s">
         <v>103</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>169</v>
+      <c r="D23" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6554,7 +7403,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="16"/>
+      <c r="X23" s="11"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
@@ -6565,19 +7414,19 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="28" t="s">
         <v>38</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -6593,7 +7442,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="16"/>
+      <c r="X24" s="11"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -6604,20 +7453,20 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>188</v>
+      <c r="A25" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -6633,7 +7482,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="16"/>
+      <c r="X25" s="11"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
@@ -6644,7 +7493,7 @@
       <c r="AF25" s="3"/>
     </row>
     <row r="26" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="5"/>
@@ -6652,7 +7501,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -6673,7 +7522,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="16"/>
+      <c r="X26" s="11"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
@@ -6684,7 +7533,7 @@
       <c r="AF26" s="3"/>
     </row>
     <row r="27" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="5"/>
@@ -6711,7 +7560,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="16"/>
+      <c r="X27" s="11"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
@@ -6722,7 +7571,7 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="5"/>
@@ -6730,7 +7579,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -6751,7 +7600,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="16"/>
+      <c r="X28" s="11"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
@@ -6762,7 +7611,7 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="5"/>
@@ -6789,7 +7638,7 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="16"/>
+      <c r="X29" s="11"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
@@ -6800,7 +7649,7 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="5"/>
@@ -6808,7 +7657,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6828,7 +7677,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-      <c r="X30" s="17" t="s">
+      <c r="X30" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y30" s="3"/>
@@ -6838,12 +7687,12 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AF30" s="3"/>
     </row>
     <row r="31" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="22" t="s">
         <v>105</v>
       </c>
       <c r="B31" s="5"/>
@@ -6868,7 +7717,7 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="17" t="s">
+      <c r="X31" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y31" s="3"/>
@@ -6878,12 +7727,12 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AF31" s="3"/>
     </row>
     <row r="32" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="22" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="5"/>
@@ -6908,7 +7757,7 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="17" t="s">
+      <c r="X32" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y32" s="5"/>
@@ -6918,12 +7767,12 @@
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AF32" s="5"/>
     </row>
     <row r="33" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="22" t="s">
         <v>107</v>
       </c>
       <c r="B33" s="5"/>
@@ -6948,7 +7797,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-      <c r="X33" s="17" t="s">
+      <c r="X33" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y33" s="3"/>
@@ -6958,12 +7807,12 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AF33" s="3"/>
     </row>
     <row r="34" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="22" t="s">
         <v>108</v>
       </c>
       <c r="B34" s="5"/>
@@ -6988,7 +7837,7 @@
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="17" t="s">
+      <c r="X34" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y34" s="5"/>
@@ -6998,13 +7847,13 @@
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AF34" s="5"/>
     </row>
     <row r="35" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
-        <v>189</v>
+      <c r="A35" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
@@ -7030,7 +7879,7 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="16"/>
+      <c r="X35" s="11"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
@@ -7041,7 +7890,7 @@
       <c r="AF35" s="3"/>
     </row>
     <row r="36" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="5"/>
@@ -7068,7 +7917,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="16"/>
+      <c r="X36" s="11"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
@@ -7079,7 +7928,7 @@
       <c r="AF36" s="3"/>
     </row>
     <row r="37" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="5"/>
@@ -7106,7 +7955,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="16"/>
+      <c r="X37" s="11"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
@@ -7117,7 +7966,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="5"/>
@@ -7144,7 +7993,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-      <c r="X38" s="16"/>
+      <c r="X38" s="11"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
@@ -7155,7 +8004,7 @@
       <c r="AF38" s="3"/>
     </row>
     <row r="39" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="5"/>
@@ -7182,7 +8031,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-      <c r="X39" s="16"/>
+      <c r="X39" s="11"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
@@ -7193,8 +8042,8 @@
       <c r="AF39" s="3"/>
     </row>
     <row r="40" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
-        <v>190</v>
+      <c r="A40" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="3"/>
@@ -7205,7 +8054,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -7222,7 +8071,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-      <c r="X40" s="16"/>
+      <c r="X40" s="11"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
@@ -7233,7 +8082,7 @@
       <c r="AF40" s="3"/>
     </row>
     <row r="41" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="22" t="s">
         <v>109</v>
       </c>
       <c r="B41" s="5"/>
@@ -7245,7 +8094,7 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -7273,7 +8122,7 @@
       <c r="AF41" s="5"/>
     </row>
     <row r="42" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="5"/>
@@ -7285,7 +8134,7 @@
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -7302,7 +8151,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="16"/>
+      <c r="X42" s="11"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
@@ -7313,7 +8162,7 @@
       <c r="AF42" s="3"/>
     </row>
     <row r="43" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="22" t="s">
         <v>111</v>
       </c>
       <c r="B43" s="5"/>
@@ -7325,7 +8174,7 @@
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -7342,7 +8191,7 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-      <c r="X43" s="16"/>
+      <c r="X43" s="11"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
@@ -7353,7 +8202,7 @@
       <c r="AF43" s="3"/>
     </row>
     <row r="44" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="5"/>
@@ -7380,7 +8229,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="16"/>
+      <c r="X44" s="11"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
@@ -7391,7 +8240,7 @@
       <c r="AF44" s="3"/>
     </row>
     <row r="45" spans="1:32" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="22" t="s">
         <v>110</v>
       </c>
       <c r="B45" s="5"/>
@@ -7403,7 +8252,7 @@
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -7431,7 +8280,7 @@
       <c r="AF45" s="5"/>
     </row>
     <row r="46" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="5"/>
@@ -7458,7 +8307,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-      <c r="X46" s="16"/>
+      <c r="X46" s="11"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
@@ -7469,8 +8318,8 @@
       <c r="AF46" s="3"/>
     </row>
     <row r="47" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="27" t="s">
-        <v>191</v>
+      <c r="A47" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="3"/>
@@ -7480,7 +8329,7 @@
         <v>38</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="3"/>
@@ -7498,7 +8347,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-      <c r="X47" s="16"/>
+      <c r="X47" s="11"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
@@ -7509,7 +8358,7 @@
       <c r="AF47" s="3"/>
     </row>
     <row r="48" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="5"/>
@@ -7520,7 +8369,7 @@
         <v>38</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="3"/>
@@ -7538,7 +8387,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-      <c r="X48" s="16"/>
+      <c r="X48" s="11"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
@@ -7549,7 +8398,7 @@
       <c r="AF48" s="3"/>
     </row>
     <row r="49" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="22" t="s">
         <v>113</v>
       </c>
       <c r="B49" s="5"/>
@@ -7569,7 +8418,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -7577,7 +8426,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-      <c r="X49" s="16"/>
+      <c r="X49" s="11"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
@@ -7588,8 +8437,8 @@
       <c r="AF49" s="3"/>
     </row>
     <row r="50" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="27" t="s">
-        <v>192</v>
+      <c r="A50" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7609,7 +8458,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -7617,7 +8466,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="16"/>
+      <c r="X50" s="11"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
@@ -7628,7 +8477,7 @@
       <c r="AF50" s="5"/>
     </row>
     <row r="51" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="5"/>
@@ -7649,7 +8498,7 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -7667,7 +8516,7 @@
       <c r="AF51" s="5"/>
     </row>
     <row r="52" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="5"/>
@@ -7692,7 +8541,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="17" t="s">
+      <c r="X52" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y52" s="5"/>
@@ -7700,14 +8549,14 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
     </row>
     <row r="53" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="5"/>
@@ -7734,7 +8583,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-      <c r="X53" s="42"/>
+      <c r="X53" s="29"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
@@ -7745,7 +8594,7 @@
       <c r="AF53" s="5"/>
     </row>
     <row r="54" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="5"/>
@@ -7772,7 +8621,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-      <c r="X54" s="16"/>
+      <c r="X54" s="11"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
@@ -7782,7 +8631,7 @@
       <c r="AF54" s="5"/>
     </row>
     <row r="55" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="5"/>
@@ -7797,7 +8646,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -7811,7 +8660,7 @@
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="42"/>
+      <c r="X55" s="29"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
@@ -7822,7 +8671,7 @@
       <c r="AF55" s="5"/>
     </row>
     <row r="56" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="5"/>
@@ -7847,7 +8696,7 @@
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="42"/>
+      <c r="X56" s="29"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
@@ -7858,7 +8707,7 @@
       <c r="AF56" s="5"/>
     </row>
     <row r="57" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="5"/>
@@ -7882,7 +8731,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="17" t="s">
+      <c r="X57" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y57" s="5"/>
@@ -7890,15 +8739,15 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
     </row>
     <row r="58" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="27" t="s">
-        <v>172</v>
+      <c r="A58" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="3"/>
@@ -7924,7 +8773,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
-      <c r="X58" s="16"/>
+      <c r="X58" s="11"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
@@ -7935,7 +8784,7 @@
       <c r="AF58" s="3"/>
     </row>
     <row r="59" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B59" s="5"/>
@@ -7962,7 +8811,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-      <c r="X59" s="17" t="s">
+      <c r="X59" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y59" s="5"/>
@@ -7970,14 +8819,14 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
     </row>
     <row r="60" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="5"/>
@@ -8004,7 +8853,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="16"/>
+      <c r="X60" s="11"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
@@ -8015,7 +8864,7 @@
       <c r="AF60" s="3"/>
     </row>
     <row r="61" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="5"/>
@@ -8038,13 +8887,13 @@
         <v>40</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-      <c r="X61" s="16"/>
+      <c r="X61" s="11"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
@@ -8055,7 +8904,7 @@
       <c r="AF61" s="3"/>
     </row>
     <row r="62" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B62" s="5"/>
@@ -8079,12 +8928,12 @@
       </c>
       <c r="S62" s="3"/>
       <c r="T62" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-      <c r="X62" s="17" t="s">
+      <c r="X62" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Y62" s="3"/>
@@ -8092,14 +8941,14 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
     </row>
     <row r="63" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="22" t="s">
         <v>114</v>
       </c>
       <c r="B63" s="5"/>
@@ -8123,12 +8972,12 @@
       </c>
       <c r="S63" s="3"/>
       <c r="T63" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-      <c r="X63" s="16"/>
+      <c r="X63" s="11"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
@@ -8139,7 +8988,7 @@
       <c r="AF63" s="3"/>
     </row>
     <row r="64" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="22" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="5"/>
@@ -8162,15 +9011,15 @@
         <v>40</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-      <c r="X64" s="16"/>
+      <c r="X64" s="11"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
@@ -8181,7 +9030,7 @@
       <c r="AF64" s="3"/>
     </row>
     <row r="65" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="5"/>
@@ -8204,13 +9053,13 @@
         <v>40</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-      <c r="X65" s="16"/>
+      <c r="X65" s="11"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
@@ -8221,7 +9070,7 @@
       <c r="AF65" s="3"/>
     </row>
     <row r="66" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="5"/>
@@ -8244,13 +9093,13 @@
         <v>40</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-      <c r="X66" s="16"/>
+      <c r="X66" s="11"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
@@ -8261,7 +9110,7 @@
       <c r="AF66" s="3"/>
     </row>
     <row r="67" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B67" s="5"/>
@@ -8288,7 +9137,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-      <c r="X67" s="16"/>
+      <c r="X67" s="11"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
@@ -8299,7 +9148,7 @@
       <c r="AF67" s="3"/>
     </row>
     <row r="68" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="22" t="s">
         <v>115</v>
       </c>
       <c r="B68" s="5"/>
@@ -8322,13 +9171,13 @@
         <v>40</v>
       </c>
       <c r="S68" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-      <c r="X68" s="16"/>
+      <c r="X68" s="11"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
@@ -8339,14 +9188,14 @@
       <c r="AF68" s="3"/>
     </row>
     <row r="69" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="41" t="s">
+      <c r="F69" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G69" s="3"/>
@@ -8354,7 +9203,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="41"/>
+      <c r="L69" s="28"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -8366,7 +9215,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-      <c r="X69" s="16"/>
+      <c r="X69" s="11"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
@@ -8377,14 +9226,14 @@
       <c r="AF69" s="3"/>
     </row>
     <row r="70" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="41" t="s">
+      <c r="F70" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G70" s="3"/>
@@ -8404,7 +9253,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-      <c r="X70" s="16"/>
+      <c r="X70" s="11"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
@@ -8415,14 +9264,14 @@
       <c r="AF70" s="3"/>
     </row>
     <row r="71" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="41" t="s">
+      <c r="F71" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G71" s="3"/>
@@ -8430,8 +9279,8 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="41" t="s">
-        <v>169</v>
+      <c r="L71" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -8444,7 +9293,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-      <c r="X71" s="16"/>
+      <c r="X71" s="11"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
@@ -8455,7 +9304,7 @@
       <c r="AF71" s="3"/>
     </row>
     <row r="72" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="5"/>
@@ -8480,29 +9329,29 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-      <c r="X72" s="43" t="s">
+      <c r="X72" s="30" t="s">
         <v>16</v>
       </c>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
-      <c r="AC72" s="43" t="s">
-        <v>169</v>
+      <c r="AC72" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
     </row>
     <row r="73" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="41" t="s">
+      <c r="F73" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G73" s="3"/>
@@ -8510,8 +9359,8 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="41" t="s">
-        <v>169</v>
+      <c r="L73" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -8524,7 +9373,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-      <c r="X73" s="16"/>
+      <c r="X73" s="11"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
@@ -8535,7 +9384,7 @@
       <c r="AF73" s="3"/>
     </row>
     <row r="74" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="5"/>
@@ -8549,23 +9398,23 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="45" t="s">
+      <c r="M74" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="44" t="s">
+      <c r="R74" s="31" t="s">
         <v>40</v>
       </c>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-      <c r="W74" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="X74" s="16"/>
+      <c r="W74" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="X74" s="11"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
@@ -8576,7 +9425,7 @@
       <c r="AF74" s="3"/>
     </row>
     <row r="75" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="5"/>
@@ -8590,13 +9439,13 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="45" t="s">
+      <c r="M75" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="45" t="s">
-        <v>169</v>
+      <c r="P75" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
@@ -8605,7 +9454,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-      <c r="X75" s="16"/>
+      <c r="X75" s="11"/>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
@@ -8616,7 +9465,7 @@
       <c r="AF75" s="3"/>
     </row>
     <row r="76" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="5"/>
@@ -8630,13 +9479,13 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="45" t="s">
+      <c r="M76" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="45" t="s">
-        <v>169</v>
+      <c r="P76" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
@@ -8645,7 +9494,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
-      <c r="X76" s="16"/>
+      <c r="X76" s="11"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
@@ -8656,7 +9505,7 @@
       <c r="AF76" s="3"/>
     </row>
     <row r="77" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="5"/>
@@ -8670,13 +9519,13 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="45" t="s">
+      <c r="M77" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="45" t="s">
-        <v>169</v>
+      <c r="P77" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
@@ -8685,7 +9534,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
-      <c r="X77" s="16"/>
+      <c r="X77" s="11"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
@@ -8696,25 +9545,25 @@
       <c r="AF77" s="3"/>
     </row>
     <row r="78" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="41" t="s">
+      <c r="F78" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="41" t="s">
-        <v>169</v>
+      <c r="J78" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="45" t="s">
+      <c r="M78" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="3"/>
@@ -8727,7 +9576,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
-      <c r="X78" s="16"/>
+      <c r="X78" s="11"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
@@ -8738,25 +9587,25 @@
       <c r="AF78" s="3"/>
     </row>
     <row r="79" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="22" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="41" t="s">
+      <c r="F79" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="41" t="s">
-        <v>169</v>
+      <c r="J79" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="45" t="s">
+      <c r="M79" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="3"/>
@@ -8769,7 +9618,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
-      <c r="X79" s="16"/>
+      <c r="X79" s="11"/>
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
@@ -8780,7 +9629,7 @@
       <c r="AF79" s="3"/>
     </row>
     <row r="80" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="5"/>
@@ -8796,7 +9645,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="45" t="s">
+      <c r="M80" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="3"/>
@@ -8809,7 +9658,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
-      <c r="X80" s="16"/>
+      <c r="X80" s="11"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
@@ -8820,7 +9669,7 @@
       <c r="AF80" s="3"/>
     </row>
     <row r="81" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B81" s="5"/>
@@ -8847,7 +9696,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
-      <c r="X81" s="16"/>
+      <c r="X81" s="11"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
@@ -8858,7 +9707,7 @@
       <c r="AF81" s="3"/>
     </row>
     <row r="82" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="5"/>
@@ -8883,29 +9732,29 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-      <c r="X82" s="26" t="s">
+      <c r="X82" s="21" t="s">
         <v>16</v>
       </c>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-      <c r="AC82" s="26" t="s">
-        <v>169</v>
+      <c r="AC82" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
     </row>
     <row r="83" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="41" t="s">
+      <c r="F83" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G83" s="3"/>
@@ -8914,7 +9763,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
-      <c r="M83" s="45" t="s">
+      <c r="M83" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="3"/>
@@ -8927,7 +9776,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
-      <c r="X83" s="16"/>
+      <c r="X83" s="11"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
@@ -8938,8 +9787,8 @@
       <c r="AF83" s="3"/>
     </row>
     <row r="84" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="27" t="s">
-        <v>173</v>
+      <c r="A84" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="3"/>
@@ -8952,7 +9801,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
-      <c r="M84" s="45" t="s">
+      <c r="M84" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="3"/>
@@ -8965,7 +9814,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
-      <c r="X84" s="16"/>
+      <c r="X84" s="11"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
@@ -8976,7 +9825,7 @@
       <c r="AF84" s="3"/>
     </row>
     <row r="85" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="22" t="s">
         <v>87</v>
       </c>
       <c r="B85" s="5"/>
@@ -8990,11 +9839,11 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-      <c r="M85" s="45" t="s">
+      <c r="M85" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="N85" s="45" t="s">
-        <v>169</v>
+      <c r="N85" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
@@ -9005,7 +9854,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
-      <c r="X85" s="16"/>
+      <c r="X85" s="11"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
@@ -9016,7 +9865,7 @@
       <c r="AF85" s="3"/>
     </row>
     <row r="86" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B86" s="5"/>
@@ -9030,12 +9879,12 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
-      <c r="M86" s="45" t="s">
+      <c r="M86" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="3"/>
-      <c r="O86" s="45" t="s">
-        <v>169</v>
+      <c r="O86" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
@@ -9045,7 +9894,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
-      <c r="X86" s="16"/>
+      <c r="X86" s="11"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
       <c r="AA86" s="3"/>
@@ -9056,7 +9905,7 @@
       <c r="AF86" s="3"/>
     </row>
     <row r="87" spans="1:32" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B87" s="5"/>
@@ -9070,7 +9919,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
-      <c r="M87" s="45" t="s">
+      <c r="M87" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N87" s="3"/>
@@ -9083,7 +9932,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
-      <c r="X87" s="16"/>
+      <c r="X87" s="11"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
@@ -9253,7 +10102,7 @@
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="41" t="s">
+      <c r="F92" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G92" s="5"/>
@@ -9285,7 +10134,7 @@
     </row>
     <row r="93" spans="1:32" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="4" t="s">
@@ -9365,7 +10214,7 @@
     <col min="21" max="21" width="12.08984375" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
     <col min="24" max="24" width="12.08984375" customWidth="1"/>
-    <col min="25" max="25" width="12.54296875" style="18" customWidth="1"/>
+    <col min="25" max="25" width="12.54296875" style="13" customWidth="1"/>
     <col min="26" max="26" width="11.6328125" customWidth="1"/>
     <col min="27" max="27" width="16.6328125" customWidth="1"/>
     <col min="28" max="30" width="11.90625" customWidth="1"/>
@@ -9375,108 +10224,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="34" t="s">
+      <c r="S1" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="W1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="X1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="Y1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="Y1" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z1" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AC1" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AD1" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE1" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="AD1" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE1" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF1" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG1" s="36" t="s">
-        <v>165</v>
+      <c r="AF1" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG1" s="25" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -9504,7 +10353,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="16"/>
+      <c r="Y2" s="11"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
@@ -9515,7 +10364,7 @@
       <c r="AG2" s="3"/>
     </row>
     <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -9543,7 +10392,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="16"/>
+      <c r="Y3" s="11"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
@@ -9554,8 +10403,8 @@
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>174</v>
+      <c r="A4" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -9582,7 +10431,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="16"/>
+      <c r="Y4" s="11"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -9593,7 +10442,7 @@
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -9621,7 +10470,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="16"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -9632,8 +10481,8 @@
       <c r="AG5" s="3"/>
     </row>
     <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>194</v>
+      <c r="A6" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -9660,7 +10509,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="16"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -9671,7 +10520,7 @@
       <c r="AG6" s="3"/>
     </row>
     <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -9699,7 +10548,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="16"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
@@ -9710,8 +10559,8 @@
       <c r="AG7" s="3"/>
     </row>
     <row r="8" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>195</v>
+      <c r="A8" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -9738,7 +10587,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -9749,8 +10598,8 @@
       <c r="AG8" s="3"/>
     </row>
     <row r="9" spans="1:33" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>175</v>
+      <c r="A9" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -9777,7 +10626,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="16"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -9788,8 +10637,8 @@
       <c r="AG9" s="3"/>
     </row>
     <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
-        <v>176</v>
+      <c r="A10" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -9816,7 +10665,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="16"/>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -9827,8 +10676,8 @@
       <c r="AG10" s="3"/>
     </row>
     <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
-        <v>177</v>
+      <c r="A11" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -9855,7 +10704,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="16"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -9866,8 +10715,8 @@
       <c r="AG11" s="3"/>
     </row>
     <row r="12" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
-        <v>178</v>
+      <c r="A12" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -9894,7 +10743,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="16"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -9905,8 +10754,8 @@
       <c r="AG12" s="3"/>
     </row>
     <row r="13" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>124</v>
+      <c r="A13" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
@@ -9931,7 +10780,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="17" t="s">
+      <c r="Y13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z13" s="3"/>
@@ -9941,16 +10790,16 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AG13" s="3"/>
     </row>
     <row r="14" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
-        <v>125</v>
+      <c r="A14" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="42"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -9972,7 +10821,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="16"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -9983,8 +10832,8 @@
       <c r="AG14" s="3"/>
     </row>
     <row r="15" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
-        <v>126</v>
+      <c r="A15" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="3"/>
@@ -10008,7 +10857,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="17" t="s">
+      <c r="Y15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z15" s="3"/>
@@ -10018,19 +10867,19 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AG15" s="3"/>
     </row>
     <row r="16" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
-        <v>127</v>
+      <c r="A16" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="42"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -10049,7 +10898,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="17" t="s">
+      <c r="Y16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z16" s="3"/>
@@ -10061,14 +10910,14 @@
       <c r="AF16" s="3"/>
     </row>
     <row r="17" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
-        <v>128</v>
+      <c r="A17" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="3"/>
@@ -10089,7 +10938,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="16"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
@@ -10100,20 +10949,20 @@
       <c r="AG17" s="3"/>
     </row>
     <row r="18" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
-        <v>129</v>
+      <c r="A18" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="41" t="s">
-        <v>169</v>
+      <c r="I18" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -10130,7 +10979,7 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="17" t="s">
+      <c r="Y18" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z18" s="3"/>
@@ -10143,20 +10992,20 @@
       <c r="AG18" s="3"/>
     </row>
     <row r="19" spans="1:33" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
-        <v>130</v>
+      <c r="A19" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="41" t="s">
-        <v>169</v>
+      <c r="I19" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -10173,14 +11022,14 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="17" t="s">
+      <c r="Y19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
@@ -10188,14 +11037,14 @@
       <c r="AG19" s="5"/>
     </row>
     <row r="20" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
-        <v>196</v>
+      <c r="A20" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -10210,7 +11059,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -10218,7 +11067,7 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-      <c r="Y20" s="16"/>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
@@ -10229,8 +11078,8 @@
       <c r="AG20" s="3"/>
     </row>
     <row r="21" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
-        <v>197</v>
+      <c r="A21" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -10251,7 +11100,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -10259,7 +11108,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="16"/>
+      <c r="Y21" s="11"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
@@ -10270,23 +11119,23 @@
       <c r="AG21" s="5"/>
     </row>
     <row r="22" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
-        <v>131</v>
+      <c r="A22" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>169</v>
+      <c r="D22" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="41" t="s">
-        <v>169</v>
+      <c r="H22" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -10304,7 +11153,7 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="16"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -10315,23 +11164,23 @@
       <c r="AG22" s="3"/>
     </row>
     <row r="23" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
-        <v>132</v>
+      <c r="A23" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>169</v>
+      <c r="D23" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="41" t="s">
-        <v>169</v>
+      <c r="H23" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -10349,7 +11198,7 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="16"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
@@ -10360,27 +11209,27 @@
       <c r="AG23" s="3"/>
     </row>
     <row r="24" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
-        <v>133</v>
+      <c r="A24" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="42"/>
+      <c r="F24" s="29"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="45" t="s">
+      <c r="N24" s="32" t="s">
         <v>39</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="45" t="s">
-        <v>169</v>
+      <c r="Q24" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -10389,7 +11238,7 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="16"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
@@ -10400,14 +11249,14 @@
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>134</v>
+      <c r="A25" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="42"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -10415,10 +11264,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="42"/>
+      <c r="N25" s="29"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="42"/>
+      <c r="Q25" s="29"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -10426,7 +11275,7 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="Y25" s="17" t="s">
+      <c r="Y25" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z25" s="3"/>
@@ -10435,13 +11284,13 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AG25" s="3"/>
     </row>
     <row r="26" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
-        <v>135</v>
+      <c r="A26" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
@@ -10455,10 +11304,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="42"/>
+      <c r="N26" s="29"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="42"/>
+      <c r="Q26" s="29"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -10466,7 +11315,7 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="Y26" s="17" t="s">
+      <c r="Y26" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z26" s="3"/>
@@ -10475,14 +11324,14 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
     </row>
     <row r="27" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
-        <v>136</v>
+      <c r="A27" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="3"/>
@@ -10507,7 +11356,7 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-      <c r="Y27" s="17" t="s">
+      <c r="Y27" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z27" s="3"/>
@@ -10518,12 +11367,12 @@
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
-        <v>137</v>
+      <c r="A28" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="3"/>
@@ -10548,7 +11397,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="Y28" s="17" t="s">
+      <c r="Y28" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="3"/>
@@ -10561,11 +11410,11 @@
       <c r="AG28" s="3"/>
     </row>
     <row r="29" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
-        <v>138</v>
+      <c r="A29" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3"/>
@@ -10589,7 +11438,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-      <c r="Y29" s="17" t="s">
+      <c r="Y29" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z29" s="3"/>
@@ -10600,12 +11449,12 @@
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
-        <v>202</v>
+      <c r="A30" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="3"/>
@@ -10630,13 +11479,13 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="17" t="s">
+      <c r="Y30" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
@@ -10644,8 +11493,8 @@
       <c r="AG30" s="3"/>
     </row>
     <row r="31" spans="1:33" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
-        <v>139</v>
+      <c r="A31" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="3"/>
@@ -10670,7 +11519,7 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="Y31" s="17" t="s">
+      <c r="Y31" s="12" t="s">
         <v>16</v>
       </c>
       <c r="Z31" s="3"/>
@@ -10679,14 +11528,14 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:33" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="s">
-        <v>179</v>
+      <c r="A32" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -10700,7 +11549,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="45" t="s">
+      <c r="N32" s="32" t="s">
         <v>39</v>
       </c>
       <c r="O32" s="5"/>
@@ -10713,7 +11562,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="16"/>
+      <c r="Y32" s="11"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
@@ -10724,8 +11573,8 @@
       <c r="AG32" s="5"/>
     </row>
     <row r="33" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
-        <v>140</v>
+      <c r="A33" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="3"/>
@@ -10739,7 +11588,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="45" t="s">
+      <c r="N33" s="32" t="s">
         <v>39</v>
       </c>
       <c r="O33" s="3"/>
@@ -10752,7 +11601,7 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-      <c r="Y33" s="16"/>
+      <c r="Y33" s="11"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
@@ -10763,15 +11612,15 @@
       <c r="AG33" s="3"/>
     </row>
     <row r="34" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
-        <v>180</v>
+      <c r="A34" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="46" t="s">
-        <v>169</v>
+      <c r="D34" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -10793,7 +11642,7 @@
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="16"/>
+      <c r="Y34" s="11"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
@@ -10804,8 +11653,8 @@
       <c r="AG34" s="5"/>
     </row>
     <row r="35" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
-        <v>141</v>
+      <c r="A35" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
@@ -10830,7 +11679,7 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="16"/>
+      <c r="Y35" s="11"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
@@ -10841,8 +11690,8 @@
       <c r="AG35" s="3"/>
     </row>
     <row r="36" spans="1:33" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
-        <v>142</v>
+      <c r="A36" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="3"/>
@@ -10854,8 +11703,8 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="41" t="s">
-        <v>169</v>
+      <c r="J36" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -10871,7 +11720,7 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="16"/>
+      <c r="Y36" s="11"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -10882,8 +11731,8 @@
       <c r="AG36" s="3"/>
     </row>
     <row r="37" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
-        <v>143</v>
+      <c r="A37" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -10910,7 +11759,7 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-      <c r="Y37" s="16"/>
+      <c r="Y37" s="11"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -10921,8 +11770,8 @@
       <c r="AG37" s="3"/>
     </row>
     <row r="38" spans="1:33" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
-        <v>144</v>
+      <c r="A38" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
@@ -10949,7 +11798,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-      <c r="Y38" s="16"/>
+      <c r="Y38" s="11"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>

--- a/Question Mapping.xlsx
+++ b/Question Mapping.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7112F7A5-5740-4E00-A2CA-1A2FE43AC4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC97923-88BF-4D95-92E5-4D992675C30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="492" windowWidth="13176" windowHeight="22656" xr2:uid="{A6574B0E-7A8B-4CB0-B81E-366180133FA1}"/>
+    <workbookView xWindow="22932" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A6574B0E-7A8B-4CB0-B81E-366180133FA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Strategy" sheetId="1" r:id="rId1"/>
-    <sheet name="Q_hs_pre" sheetId="4" r:id="rId2"/>
-    <sheet name="Q_hs_post" sheetId="15" r:id="rId3"/>
-    <sheet name="Q_ci" sheetId="16" r:id="rId4"/>
+    <sheet name="Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Q-map" sheetId="17" r:id="rId2"/>
+    <sheet name="Q_hs_pre" sheetId="4" r:id="rId3"/>
+    <sheet name="Q_hs_post" sheetId="15" r:id="rId4"/>
+    <sheet name="Q_ci" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Q_ci!$A$1:$AG$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Q_hs_post!$A$1:$AF$93</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Q_hs_pre!$A$1:$AF$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Strategy!$F$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Q_ci!$A$1:$AG$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Q_hs_post!$A$1:$AF$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Q_hs_pre!$A$1:$AF$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stats!$F$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="567">
   <si>
     <t xml:space="preserve">G </t>
   </si>
@@ -1042,6 +1043,813 @@
   </si>
   <si>
     <t>Run McNemar</t>
+  </si>
+  <si>
+    <t>Current Source(s) of Power (select all that apply)</t>
+  </si>
+  <si>
+    <t>Do you feel that having access to minigrid power has made you more safe? Please explain-&gt;</t>
+  </si>
+  <si>
+    <t>Has your (or your spouses) occupation changed since youve been connected to minigrid power?</t>
+  </si>
+  <si>
+    <t>How close is the nearest Health Center / Clinic</t>
+  </si>
+  <si>
+    <t>How has minigrid power affected the females in your household?</t>
+  </si>
+  <si>
+    <t>How many electronic devices or appliances do you currently use in your household (not including cell phones)?</t>
+  </si>
+  <si>
+    <t>How many hours a day do you use at lease one source of power you checked above</t>
+  </si>
+  <si>
+    <t>How many kerosene lamps do you currently have in your household?</t>
+  </si>
+  <si>
+    <t>How many kerosene lamps do you currently use in your household? (before grid connection)</t>
+  </si>
+  <si>
+    <t>How many kerosene lamps do you currently use in your household? (POST minigrid connection)</t>
+  </si>
+  <si>
+    <t>How safe would you feel outside your home at nighttime IF you had exterior lights/community lighting?</t>
+  </si>
+  <si>
+    <t>If any female children do not attend school FULL TIME, please specify why:</t>
+  </si>
+  <si>
+    <t>If any male children do not attend school FULL TIME, please specify why:</t>
+  </si>
+  <si>
+    <t>If yes, please explain=</t>
+  </si>
+  <si>
+    <t>If yes, please explain=/how:</t>
+  </si>
+  <si>
+    <t>If yes, please explain=2</t>
+  </si>
+  <si>
+    <t>If yes, please explain-&gt; or list the new occupation:</t>
+  </si>
+  <si>
+    <t>If yes, please explain-&gt; why</t>
+  </si>
+  <si>
+    <t>If yes, please explain-&gt; why/how:</t>
+  </si>
+  <si>
+    <t>If yes, please explain-&gt;:</t>
+  </si>
+  <si>
+    <t>If yes, please tell us why or how it has changed:</t>
+  </si>
+  <si>
+    <t>If you answered yes to above, please explain*:</t>
+  </si>
+  <si>
+    <t>If you answered yes to the question above, please explain*:</t>
+  </si>
+  <si>
+    <t>If you answered 'yes, they have increased' above, by how many hours have they increased?</t>
+  </si>
+  <si>
+    <t>If you are NOT the Primary Provider of Household, what is the occupation of Primary Provider?</t>
+  </si>
+  <si>
+    <t>If you have closed operations, please explain* why:</t>
+  </si>
+  <si>
+    <t>If you selected 'other electronic device' above, please list what it is:</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain&amp; (if not, please skip)</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain&amp; (if not, please skip)1</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain&amp; (if not, please skip)2</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain&amp; (if not, please skip)3</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain&amp; (if not, please skip)4</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain&amp; (if not, please skip)5</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain&amp; (if not, please skip)6</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain&amp;: (if not, please skip)</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain&amp;: (if not, please skip)1</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain&amp;: (if not, please skip)2</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)10</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)11</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)12</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)2</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)3</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)4</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)5</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)6</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)7</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)8</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain__: (if not, please skip)9</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain= (if not, please skip)</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain= (if not, please skip)10</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain= (if not, please skip)2</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain= (if not, please skip)3</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain= (if not, please skip)4</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain= (if not, please skip)5</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain= (if not, please skip)6</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain= (if not, please skip)7</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain= (if not, please skip)8</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain= (if not, please skip)9</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain-&gt;: (if not, please skip)</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain-&gt;: (if not, please skip)10</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain-&gt;: (if not, please skip)2</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain-&gt;: (if not, please skip)3</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain-&gt;: (if not, please skip)4</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain-&gt;: (if not, please skip)5</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain-&gt;: (if not, please skip)6</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain-&gt;: (if not, please skip)7</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain-&gt;: (if not, please skip)8</t>
+  </si>
+  <si>
+    <t>If you selected 'other' in the question above, please explain-&gt;: (if not, please skip)9</t>
+  </si>
+  <si>
+    <t>Please describe any benefits youve seen from having connection to Renewvia minigrid,</t>
+  </si>
+  <si>
+    <t>Please describe any problems youve experienced from having connection to Renewvia minigrid</t>
+  </si>
+  <si>
+    <t>Since connection to Renewvia minigrid, has the amount of use of diesel changed?</t>
+  </si>
+  <si>
+    <t>Since connection to Renewvia minigrid, has the amount of use of kerosene lanterns changed?</t>
+  </si>
+  <si>
+    <t>Types of Electronic Devices or Appliances in Household: Select all that apply</t>
+  </si>
+  <si>
+    <t>What are your main sources of energy for charging appliances (example phones)?</t>
+  </si>
+  <si>
+    <t>What is approximate monthly cost of energy used strictly for charging appliances?</t>
+  </si>
+  <si>
+    <t>What is the Clinic / Hospital able to offer or provide due to connection to Renewvia minigrid that it wasnt able to offer before?</t>
+  </si>
+  <si>
+    <t>What is the MAIN reason for signing up for connection to minigrid?</t>
+  </si>
+  <si>
+    <t>What is the SECOND MAIN reason for signing up for connection to minigrid?</t>
+  </si>
+  <si>
+    <t>What is your clean water source?</t>
+  </si>
+  <si>
+    <t>What is your Current MAIN Source of Power?</t>
+  </si>
+  <si>
+    <t>What is your main source of energy for cooking?</t>
+  </si>
+  <si>
+    <t>What is your school able to offer / accomplish by having electricity that wasnt possible before?</t>
+  </si>
+  <si>
+    <t>What services are you able to offer/sell/provide due to connection to Renewvia minigrid that you werent able to offer prior to connection?</t>
+  </si>
+  <si>
+    <t>What types of Electronic Devices or Appliances would you like to add to your household? Select all that apply</t>
+  </si>
+  <si>
+    <t>Investigate</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Economic activity</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Clean Water</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>kerosene_lamp_usage_time</t>
+  </si>
+  <si>
+    <t>household_business_owners</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>power_sources</t>
+  </si>
+  <si>
+    <t>feel_safer_with_minigrid</t>
+  </si>
+  <si>
+    <t>better_access_health_minigrid</t>
+  </si>
+  <si>
+    <t>clean_drinking_water</t>
+  </si>
+  <si>
+    <t>non_renewvia_electrical_sources</t>
+  </si>
+  <si>
+    <t>business_use_minigrid</t>
+  </si>
+  <si>
+    <t>community_lights</t>
+  </si>
+  <si>
+    <t>clinic_refrigeration_access</t>
+  </si>
+  <si>
+    <t>clinic_electricity_access</t>
+  </si>
+  <si>
+    <t>clinic_electricity_access_minigrid</t>
+  </si>
+  <si>
+    <t>home_exterior_lights</t>
+  </si>
+  <si>
+    <t>other_household_activities</t>
+  </si>
+  <si>
+    <t>earnings_change</t>
+  </si>
+  <si>
+    <t>health_offering_change</t>
+  </si>
+  <si>
+    <t>school_attendance_change</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>school_performance_change</t>
+  </si>
+  <si>
+    <t>electronics_count_change</t>
+  </si>
+  <si>
+    <t>kerosene_lamp_usage_change</t>
+  </si>
+  <si>
+    <t>household_headcount_change</t>
+  </si>
+  <si>
+    <t>girls_schooling_change</t>
+  </si>
+  <si>
+    <t>boys_schooling_change</t>
+  </si>
+  <si>
+    <t>occupation_change</t>
+  </si>
+  <si>
+    <t>houlsehold_income_change</t>
+  </si>
+  <si>
+    <t>ci_offering_change</t>
+  </si>
+  <si>
+    <t>appliances_count_addition</t>
+  </si>
+  <si>
+    <t>school_performance</t>
+  </si>
+  <si>
+    <t>clinic_travel_distance</t>
+  </si>
+  <si>
+    <t>phone_charge_travel_distance</t>
+  </si>
+  <si>
+    <t>water_collection_travel_distance</t>
+  </si>
+  <si>
+    <t>minigrid_effect_on_household_female</t>
+  </si>
+  <si>
+    <t>cooking_fuel_collection_time</t>
+  </si>
+  <si>
+    <t>water_collection_time</t>
+  </si>
+  <si>
+    <t>connection_period</t>
+  </si>
+  <si>
+    <t>adult_headcount</t>
+  </si>
+  <si>
+    <t>cellphones_count</t>
+  </si>
+  <si>
+    <t>appliances_count</t>
+  </si>
+  <si>
+    <t>girls_headcount</t>
+  </si>
+  <si>
+    <t>power_sources_usage</t>
+  </si>
+  <si>
+    <t>light_hours_current</t>
+  </si>
+  <si>
+    <t>kerosene_lamps_count</t>
+  </si>
+  <si>
+    <t>boys_headcount</t>
+  </si>
+  <si>
+    <t>girls_schooling</t>
+  </si>
+  <si>
+    <t>boys_schooling</t>
+  </si>
+  <si>
+    <t>household_headcount</t>
+  </si>
+  <si>
+    <t>kerosene_lamps_cost</t>
+  </si>
+  <si>
+    <t>water_cost</t>
+  </si>
+  <si>
+    <t>phone_charge_cost</t>
+  </si>
+  <si>
+    <t>phone_charge_frequency</t>
+  </si>
+  <si>
+    <t>feel_safe_dark</t>
+  </si>
+  <si>
+    <t>feel_safe_if_exterior_lights</t>
+  </si>
+  <si>
+    <t>girls_unschooled_reasons</t>
+  </si>
+  <si>
+    <t>boys_unschooled_reasons</t>
+  </si>
+  <si>
+    <t>business_from_minigrid</t>
+  </si>
+  <si>
+    <t>occupation_change_explain</t>
+  </si>
+  <si>
+    <t>houlsehold_income_change_explain</t>
+  </si>
+  <si>
+    <t>household_headcount_change_explain</t>
+  </si>
+  <si>
+    <t>minigrid_access_life_improvement_explain</t>
+  </si>
+  <si>
+    <t>school_performance_change_explain</t>
+  </si>
+  <si>
+    <t>business_type</t>
+  </si>
+  <si>
+    <t>new_prod_serv_add_explain</t>
+  </si>
+  <si>
+    <t>workforce_change_female</t>
+  </si>
+  <si>
+    <t>workforce_change_explain</t>
+  </si>
+  <si>
+    <t>business_hours_increase</t>
+  </si>
+  <si>
+    <t>connection_period_non_original_subscriber</t>
+  </si>
+  <si>
+    <t>primary_provider_occupation</t>
+  </si>
+  <si>
+    <t>closed_operations_explain</t>
+  </si>
+  <si>
+    <t>appliances_addition_explain</t>
+  </si>
+  <si>
+    <t>power_primary_source_explain</t>
+  </si>
+  <si>
+    <t>appliances_explain</t>
+  </si>
+  <si>
+    <t>cooking_energy_sources_explain</t>
+  </si>
+  <si>
+    <t>applicances_charging_sources_explain</t>
+  </si>
+  <si>
+    <t>feel_unsafe_reasons_explain</t>
+  </si>
+  <si>
+    <t>phone_charge_location_explain</t>
+  </si>
+  <si>
+    <t>girls_unschooled_reasons_explain</t>
+  </si>
+  <si>
+    <t>boys_unschooled_reasons_explain</t>
+  </si>
+  <si>
+    <t>power_current_sources_explain</t>
+  </si>
+  <si>
+    <t>occupation_primary_explain</t>
+  </si>
+  <si>
+    <t>occupation_secondary_explain</t>
+  </si>
+  <si>
+    <t>minigrid_access_life_family_impact</t>
+  </si>
+  <si>
+    <t>minigrid_access_productivity_improvement</t>
+  </si>
+  <si>
+    <t>business_recent</t>
+  </si>
+  <si>
+    <t>operation_status</t>
+  </si>
+  <si>
+    <t>exterior_lights_minigrid</t>
+  </si>
+  <si>
+    <t>occupation_secondary_provider</t>
+  </si>
+  <si>
+    <t>minigrid_benefits</t>
+  </si>
+  <si>
+    <t>minigrid_problems</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>workforce_change</t>
+  </si>
+  <si>
+    <t>diesel_usage_change</t>
+  </si>
+  <si>
+    <t>kerosene_usage_change</t>
+  </si>
+  <si>
+    <t>clean_drinking_water_access</t>
+  </si>
+  <si>
+    <t>operations_hours_change</t>
+  </si>
+  <si>
+    <t>appliances_addition_type</t>
+  </si>
+  <si>
+    <t>employement_type</t>
+  </si>
+  <si>
+    <t>appliances_type</t>
+  </si>
+  <si>
+    <t>girls_age</t>
+  </si>
+  <si>
+    <t>boys_age</t>
+  </si>
+  <si>
+    <t>light_primary_sources</t>
+  </si>
+  <si>
+    <t>applicances_charging_sources</t>
+  </si>
+  <si>
+    <t>cooking_energy_sources</t>
+  </si>
+  <si>
+    <t>clinic_open_hours</t>
+  </si>
+  <si>
+    <t>applicances_charging_cost</t>
+  </si>
+  <si>
+    <t>cooking_energy_cost</t>
+  </si>
+  <si>
+    <t>avg_person_age_water_collection</t>
+  </si>
+  <si>
+    <t>clinic_offering_unable_prior_minigrid</t>
+  </si>
+  <si>
+    <t>minigrid_signup_primary_reason</t>
+  </si>
+  <si>
+    <t>minigrid_signup_secondary_reason</t>
+  </si>
+  <si>
+    <t>clean_drinking_water_source</t>
+  </si>
+  <si>
+    <t>avg_household_income</t>
+  </si>
+  <si>
+    <t>community_clean_water_source</t>
+  </si>
+  <si>
+    <t>clean_water_source</t>
+  </si>
+  <si>
+    <t>power_sources_primary</t>
+  </si>
+  <si>
+    <t>cooking_energy_source</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>school_offering_unable_prior_minigrid</t>
+  </si>
+  <si>
+    <t>water_source</t>
+  </si>
+  <si>
+    <t>feel_unsafe_reasons</t>
+  </si>
+  <si>
+    <t>ci_new_offering</t>
+  </si>
+  <si>
+    <t>phone_charge_location</t>
+  </si>
+  <si>
+    <t>cooking_fuel_responsible</t>
+  </si>
+  <si>
+    <t>water_collection_responsible</t>
+  </si>
+  <si>
+    <t>minigrid_access_life_improvement</t>
+  </si>
+  <si>
+    <t>Household Activities</t>
+  </si>
+  <si>
+    <t>Who?</t>
+  </si>
+  <si>
+    <t>How much?</t>
+  </si>
+  <si>
+    <t>Safer?</t>
+  </si>
+  <si>
+    <t>How well? Renewable?</t>
+  </si>
+  <si>
+    <t>Cleaner?</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>Community safer?</t>
+  </si>
+  <si>
+    <t>Quality health</t>
+  </si>
+  <si>
+    <t>Home safe</t>
+  </si>
+  <si>
+    <t>Chores/value creation</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>How many</t>
+  </si>
+  <si>
+    <t>How much</t>
+  </si>
+  <si>
+    <t>How well</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Ho much</t>
+  </si>
+  <si>
+    <t>Tariff</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>How far</t>
+  </si>
+  <si>
+    <t>Gender Equality</t>
+  </si>
+  <si>
+    <t>How long</t>
+  </si>
+  <si>
+    <t>Tech Connectedness</t>
+  </si>
+  <si>
+    <t>How clean</t>
+  </si>
+  <si>
+    <t>How often</t>
+  </si>
+  <si>
+    <t>Safer</t>
+  </si>
+  <si>
+    <t>Why unschooled</t>
+  </si>
+  <si>
+    <t>Well-being</t>
+  </si>
+  <si>
+    <t>Productive</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Impact - positive</t>
+  </si>
+  <si>
+    <t>Impact - neutral</t>
+  </si>
+  <si>
+    <t>Impact - negative</t>
+  </si>
+  <si>
+    <t>Workforce</t>
+  </si>
+  <si>
+    <t>Health / Energy Mix</t>
+  </si>
+  <si>
+    <t>Energy Mix</t>
+  </si>
+  <si>
+    <t>3, 7</t>
+  </si>
+  <si>
+    <t>How old</t>
+  </si>
+  <si>
+    <t>Why signup</t>
+  </si>
+  <si>
+    <t>Which one</t>
+  </si>
+  <si>
+    <t>Which ones</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1349,13 +2157,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1672,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C686D34-E6E7-42EB-A000-4AF5B0346840}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19:D24"/>
     </sheetView>
@@ -2247,8 +3058,8 @@
       <c r="R19" s="35"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="41" t="s">
         <v>208</v>
       </c>
@@ -2292,7 +3103,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="55"/>
+      <c r="A22" s="57"/>
       <c r="E22" s="48" t="s">
         <v>86</v>
       </c>
@@ -2325,7 +3136,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="55"/>
+      <c r="A23" s="57"/>
       <c r="E23" s="48" t="s">
         <v>88</v>
       </c>
@@ -2515,7 +3326,7 @@
       <c r="E30" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="55" t="s">
         <v>200</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -2672,7 +3483,7 @@
       <c r="E37" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F37" s="55" t="s">
         <v>201</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -2947,6 +3758,2940 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F539560A-053D-46B1-AC45-492ED0F30E96}">
+  <dimension ref="A1:F193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="55.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" t="s">
+        <v>538</v>
+      </c>
+      <c r="E4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" t="s">
+        <v>538</v>
+      </c>
+      <c r="E9" t="s">
+        <v>388</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" t="s">
+        <v>538</v>
+      </c>
+      <c r="E10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" t="s">
+        <v>520</v>
+      </c>
+      <c r="D11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D12" t="s">
+        <v>538</v>
+      </c>
+      <c r="E12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D13" t="s">
+        <v>538</v>
+      </c>
+      <c r="E13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D14" t="s">
+        <v>538</v>
+      </c>
+      <c r="E14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" t="s">
+        <v>525</v>
+      </c>
+      <c r="D15" t="s">
+        <v>538</v>
+      </c>
+      <c r="E15" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16" t="s">
+        <v>526</v>
+      </c>
+      <c r="D16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" t="s">
+        <v>538</v>
+      </c>
+      <c r="E17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" t="s">
+        <v>538</v>
+      </c>
+      <c r="E18" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>404</v>
+      </c>
+      <c r="C19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" t="s">
+        <v>538</v>
+      </c>
+      <c r="E19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" t="s">
+        <v>538</v>
+      </c>
+      <c r="E20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E21" t="s">
+        <v>529</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D22" t="s">
+        <v>539</v>
+      </c>
+      <c r="E22" t="s">
+        <v>385</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" t="s">
+        <v>532</v>
+      </c>
+      <c r="D23" t="s">
+        <v>539</v>
+      </c>
+      <c r="E23" t="s">
+        <v>533</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>409</v>
+      </c>
+      <c r="C24" t="s">
+        <v>518</v>
+      </c>
+      <c r="D24" t="s">
+        <v>538</v>
+      </c>
+      <c r="E24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" t="s">
+        <v>532</v>
+      </c>
+      <c r="D25" t="s">
+        <v>538</v>
+      </c>
+      <c r="E25" t="s">
+        <v>533</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>411</v>
+      </c>
+      <c r="C26" t="s">
+        <v>530</v>
+      </c>
+      <c r="D26" t="s">
+        <v>538</v>
+      </c>
+      <c r="E26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>412</v>
+      </c>
+      <c r="C27" t="s">
+        <v>521</v>
+      </c>
+      <c r="D27" t="s">
+        <v>538</v>
+      </c>
+      <c r="E27" t="s">
+        <v>385</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D28" t="s">
+        <v>538</v>
+      </c>
+      <c r="E28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" t="s">
+        <v>535</v>
+      </c>
+      <c r="D29" t="s">
+        <v>538</v>
+      </c>
+      <c r="E29" t="s">
+        <v>533</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>415</v>
+      </c>
+      <c r="C30" t="s">
+        <v>535</v>
+      </c>
+      <c r="D30" t="s">
+        <v>538</v>
+      </c>
+      <c r="E30" t="s">
+        <v>533</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" t="s">
+        <v>416</v>
+      </c>
+      <c r="C31" t="s">
+        <v>535</v>
+      </c>
+      <c r="D31" t="s">
+        <v>538</v>
+      </c>
+      <c r="E31" t="s">
+        <v>529</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" t="s">
+        <v>536</v>
+      </c>
+      <c r="D32" t="s">
+        <v>538</v>
+      </c>
+      <c r="E32" t="s">
+        <v>529</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C33" t="s">
+        <v>535</v>
+      </c>
+      <c r="D33" t="s">
+        <v>538</v>
+      </c>
+      <c r="E33" t="s">
+        <v>529</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" t="s">
+        <v>535</v>
+      </c>
+      <c r="D34" t="s">
+        <v>538</v>
+      </c>
+      <c r="E34" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" t="s">
+        <v>420</v>
+      </c>
+      <c r="C35" t="s">
+        <v>532</v>
+      </c>
+      <c r="D35" t="s">
+        <v>538</v>
+      </c>
+      <c r="E35" t="s">
+        <v>533</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B36" t="s">
+        <v>421</v>
+      </c>
+      <c r="C36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D36" t="s">
+        <v>538</v>
+      </c>
+      <c r="E36" t="s">
+        <v>385</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>421</v>
+      </c>
+      <c r="C37" t="s">
+        <v>541</v>
+      </c>
+      <c r="D37" t="s">
+        <v>538</v>
+      </c>
+      <c r="E37" t="s">
+        <v>385</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>422</v>
+      </c>
+      <c r="C38" t="s">
+        <v>541</v>
+      </c>
+      <c r="D38" t="s">
+        <v>538</v>
+      </c>
+      <c r="E38" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>423</v>
+      </c>
+      <c r="C39" t="s">
+        <v>541</v>
+      </c>
+      <c r="D39" t="s">
+        <v>538</v>
+      </c>
+      <c r="E39" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" t="s">
+        <v>424</v>
+      </c>
+      <c r="C40" t="s">
+        <v>532</v>
+      </c>
+      <c r="D40" t="s">
+        <v>538</v>
+      </c>
+      <c r="E40" t="s">
+        <v>542</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C41" t="s">
+        <v>543</v>
+      </c>
+      <c r="D41" t="s">
+        <v>538</v>
+      </c>
+      <c r="E41" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>426</v>
+      </c>
+      <c r="C42" t="s">
+        <v>543</v>
+      </c>
+      <c r="D42" t="s">
+        <v>538</v>
+      </c>
+      <c r="E42" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" t="s">
+        <v>427</v>
+      </c>
+      <c r="C43" t="s">
+        <v>518</v>
+      </c>
+      <c r="D43" t="s">
+        <v>538</v>
+      </c>
+      <c r="E43" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C44" t="s">
+        <v>530</v>
+      </c>
+      <c r="D44" t="s">
+        <v>538</v>
+      </c>
+      <c r="E44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>429</v>
+      </c>
+      <c r="C45" t="s">
+        <v>530</v>
+      </c>
+      <c r="D45" t="s">
+        <v>538</v>
+      </c>
+      <c r="E45" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" t="s">
+        <v>430</v>
+      </c>
+      <c r="C46" t="s">
+        <v>530</v>
+      </c>
+      <c r="D46" t="s">
+        <v>538</v>
+      </c>
+      <c r="E46" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>430</v>
+      </c>
+      <c r="C47" t="s">
+        <v>530</v>
+      </c>
+      <c r="D47" t="s">
+        <v>538</v>
+      </c>
+      <c r="E47" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B48" t="s">
+        <v>430</v>
+      </c>
+      <c r="C48" t="s">
+        <v>530</v>
+      </c>
+      <c r="D48" t="s">
+        <v>538</v>
+      </c>
+      <c r="E48" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>431</v>
+      </c>
+      <c r="C49" t="s">
+        <v>530</v>
+      </c>
+      <c r="D49" t="s">
+        <v>538</v>
+      </c>
+      <c r="E49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50" t="s">
+        <v>432</v>
+      </c>
+      <c r="C50" t="s">
+        <v>519</v>
+      </c>
+      <c r="D50" t="s">
+        <v>538</v>
+      </c>
+      <c r="E50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" t="s">
+        <v>519</v>
+      </c>
+      <c r="D51" t="s">
+        <v>538</v>
+      </c>
+      <c r="E51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" t="s">
+        <v>433</v>
+      </c>
+      <c r="C52" t="s">
+        <v>519</v>
+      </c>
+      <c r="D52" t="s">
+        <v>538</v>
+      </c>
+      <c r="E52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" t="s">
+        <v>433</v>
+      </c>
+      <c r="C53" t="s">
+        <v>519</v>
+      </c>
+      <c r="D53" t="s">
+        <v>538</v>
+      </c>
+      <c r="E53" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" t="s">
+        <v>433</v>
+      </c>
+      <c r="C54" t="s">
+        <v>519</v>
+      </c>
+      <c r="D54" t="s">
+        <v>538</v>
+      </c>
+      <c r="E54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B55" t="s">
+        <v>434</v>
+      </c>
+      <c r="C55" t="s">
+        <v>521</v>
+      </c>
+      <c r="D55" t="s">
+        <v>538</v>
+      </c>
+      <c r="E55" t="s">
+        <v>385</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" t="s">
+        <v>434</v>
+      </c>
+      <c r="C56" t="s">
+        <v>521</v>
+      </c>
+      <c r="D56" t="s">
+        <v>538</v>
+      </c>
+      <c r="E56" t="s">
+        <v>385</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C57" t="s">
+        <v>521</v>
+      </c>
+      <c r="D57" t="s">
+        <v>538</v>
+      </c>
+      <c r="E57" t="s">
+        <v>385</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>435</v>
+      </c>
+      <c r="C58" t="s">
+        <v>530</v>
+      </c>
+      <c r="D58" t="s">
+        <v>538</v>
+      </c>
+      <c r="E58" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>436</v>
+      </c>
+      <c r="C59" t="s">
+        <v>530</v>
+      </c>
+      <c r="D59" t="s">
+        <v>538</v>
+      </c>
+      <c r="E59" t="s">
+        <v>533</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>437</v>
+      </c>
+      <c r="C60" t="s">
+        <v>530</v>
+      </c>
+      <c r="D60" t="s">
+        <v>538</v>
+      </c>
+      <c r="E60" t="s">
+        <v>533</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>438</v>
+      </c>
+      <c r="C61" t="s">
+        <v>530</v>
+      </c>
+      <c r="D61" t="s">
+        <v>538</v>
+      </c>
+      <c r="E61" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" t="s">
+        <v>521</v>
+      </c>
+      <c r="D62" t="s">
+        <v>538</v>
+      </c>
+      <c r="E62" t="s">
+        <v>385</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>440</v>
+      </c>
+      <c r="C63" t="s">
+        <v>545</v>
+      </c>
+      <c r="D63" t="s">
+        <v>538</v>
+      </c>
+      <c r="E63" t="s">
+        <v>385</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" t="s">
+        <v>531</v>
+      </c>
+      <c r="D64" t="s">
+        <v>538</v>
+      </c>
+      <c r="E64" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>442</v>
+      </c>
+      <c r="C65" t="s">
+        <v>546</v>
+      </c>
+      <c r="D65" t="s">
+        <v>538</v>
+      </c>
+      <c r="E65" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>443</v>
+      </c>
+      <c r="C66" t="s">
+        <v>547</v>
+      </c>
+      <c r="D66" t="s">
+        <v>538</v>
+      </c>
+      <c r="E66" t="s">
+        <v>388</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B67" t="s">
+        <v>444</v>
+      </c>
+      <c r="C67" t="s">
+        <v>547</v>
+      </c>
+      <c r="D67" t="s">
+        <v>538</v>
+      </c>
+      <c r="E67" t="s">
+        <v>388</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>444</v>
+      </c>
+      <c r="C68" t="s">
+        <v>547</v>
+      </c>
+      <c r="D68" t="s">
+        <v>538</v>
+      </c>
+      <c r="E68" t="s">
+        <v>388</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>445</v>
+      </c>
+      <c r="C69" t="s">
+        <v>548</v>
+      </c>
+      <c r="D69" t="s">
+        <v>538</v>
+      </c>
+      <c r="E69" t="s">
+        <v>533</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B70" t="s">
+        <v>445</v>
+      </c>
+      <c r="C70" t="s">
+        <v>548</v>
+      </c>
+      <c r="D70" t="s">
+        <v>538</v>
+      </c>
+      <c r="E70" t="s">
+        <v>533</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>446</v>
+      </c>
+      <c r="C71" t="s">
+        <v>548</v>
+      </c>
+      <c r="D71" t="s">
+        <v>538</v>
+      </c>
+      <c r="E71" t="s">
+        <v>533</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B72" t="s">
+        <v>446</v>
+      </c>
+      <c r="C72" t="s">
+        <v>548</v>
+      </c>
+      <c r="D72" t="s">
+        <v>538</v>
+      </c>
+      <c r="E72" t="s">
+        <v>533</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>427</v>
+      </c>
+      <c r="C73" t="s">
+        <v>543</v>
+      </c>
+      <c r="D73" t="s">
+        <v>538</v>
+      </c>
+      <c r="E73" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" t="s">
+        <v>447</v>
+      </c>
+      <c r="C74" t="s">
+        <v>535</v>
+      </c>
+      <c r="D74" t="s">
+        <v>538</v>
+      </c>
+      <c r="E74" t="s">
+        <v>386</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" t="s">
+        <v>448</v>
+      </c>
+      <c r="C75" t="s">
+        <v>535</v>
+      </c>
+      <c r="D75" t="s">
+        <v>538</v>
+      </c>
+      <c r="E75" t="s">
+        <v>386</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B76" t="s">
+        <v>449</v>
+      </c>
+      <c r="C76" t="s">
+        <v>535</v>
+      </c>
+      <c r="D76" t="s">
+        <v>538</v>
+      </c>
+      <c r="E76" t="s">
+        <v>386</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B77" t="s">
+        <v>450</v>
+      </c>
+      <c r="C77" t="s">
+        <v>535</v>
+      </c>
+      <c r="D77" t="s">
+        <v>538</v>
+      </c>
+      <c r="E77" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B78" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B79" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B80" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B81" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B82" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B83" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B88" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B91" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B92" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B93" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B94" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B95" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B96" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B97" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B98" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B100" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B101" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B102" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B103" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B104" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B105" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B106" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B107" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B108" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B109" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B112" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B113" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B114" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B115" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B116" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B117" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B118" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B119" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B120" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B121" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B122" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B123" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B124" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B125" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B126" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B127" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B128" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B129" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B130" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B131" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B132" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B133" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B134" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B135" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" t="s">
+        <v>473</v>
+      </c>
+      <c r="C136" t="s">
+        <v>557</v>
+      </c>
+      <c r="D136" t="s">
+        <v>538</v>
+      </c>
+      <c r="E136" t="s">
+        <v>549</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" t="s">
+        <v>474</v>
+      </c>
+      <c r="C137" t="s">
+        <v>550</v>
+      </c>
+      <c r="D137" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B138" t="s">
+        <v>475</v>
+      </c>
+      <c r="C138" t="s">
+        <v>551</v>
+      </c>
+      <c r="D138" t="s">
+        <v>538</v>
+      </c>
+      <c r="E138" t="s">
+        <v>529</v>
+      </c>
+      <c r="F138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B139" t="s">
+        <v>476</v>
+      </c>
+      <c r="C139" t="s">
+        <v>551</v>
+      </c>
+      <c r="D139" t="s">
+        <v>539</v>
+      </c>
+      <c r="E139" t="s">
+        <v>529</v>
+      </c>
+      <c r="F139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B140" t="s">
+        <v>477</v>
+      </c>
+      <c r="C140" t="s">
+        <v>388</v>
+      </c>
+      <c r="D140" t="s">
+        <v>538</v>
+      </c>
+      <c r="E140" t="s">
+        <v>549</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B141" t="s">
+        <v>553</v>
+      </c>
+      <c r="C141" t="s">
+        <v>554</v>
+      </c>
+      <c r="D141" t="s">
+        <v>538</v>
+      </c>
+      <c r="E141" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>478</v>
+      </c>
+      <c r="C142" t="s">
+        <v>555</v>
+      </c>
+      <c r="D142" t="s">
+        <v>538</v>
+      </c>
+      <c r="E142" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B143" t="s">
+        <v>479</v>
+      </c>
+      <c r="C143" t="s">
+        <v>556</v>
+      </c>
+      <c r="D143" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B144" t="s">
+        <v>480</v>
+      </c>
+      <c r="C144" t="s">
+        <v>558</v>
+      </c>
+      <c r="D144" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B145" t="s">
+        <v>427</v>
+      </c>
+      <c r="C145" t="s">
+        <v>543</v>
+      </c>
+      <c r="D145" t="s">
+        <v>538</v>
+      </c>
+      <c r="E145" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146" t="s">
+        <v>453</v>
+      </c>
+      <c r="C146" t="s">
+        <v>551</v>
+      </c>
+      <c r="D146" t="s">
+        <v>539</v>
+      </c>
+      <c r="E146" t="s">
+        <v>529</v>
+      </c>
+      <c r="F146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>481</v>
+      </c>
+      <c r="C147" t="s">
+        <v>518</v>
+      </c>
+      <c r="D147" t="s">
+        <v>538</v>
+      </c>
+      <c r="E147" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" t="s">
+        <v>482</v>
+      </c>
+      <c r="C148" t="s">
+        <v>559</v>
+      </c>
+      <c r="D148" t="s">
+        <v>539</v>
+      </c>
+      <c r="E148" t="s">
+        <v>529</v>
+      </c>
+      <c r="F148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B149" t="s">
+        <v>483</v>
+      </c>
+      <c r="C149" t="s">
+        <v>387</v>
+      </c>
+      <c r="D149" t="s">
+        <v>538</v>
+      </c>
+      <c r="E149" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B150" t="s">
+        <v>484</v>
+      </c>
+      <c r="C150" t="s">
+        <v>521</v>
+      </c>
+      <c r="D150" t="s">
+        <v>538</v>
+      </c>
+      <c r="E150" t="s">
+        <v>560</v>
+      </c>
+      <c r="F150" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" t="s">
+        <v>485</v>
+      </c>
+      <c r="C151" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B152" t="s">
+        <v>486</v>
+      </c>
+      <c r="C152" t="s">
+        <v>550</v>
+      </c>
+      <c r="D152" t="s">
+        <v>539</v>
+      </c>
+      <c r="E152" t="s">
+        <v>529</v>
+      </c>
+      <c r="F152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B153" t="s">
+        <v>487</v>
+      </c>
+      <c r="C153" t="s">
+        <v>387</v>
+      </c>
+      <c r="D153" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" t="s">
+        <v>488</v>
+      </c>
+      <c r="C154" t="s">
+        <v>550</v>
+      </c>
+      <c r="D154" t="s">
+        <v>538</v>
+      </c>
+      <c r="E154" t="s">
+        <v>529</v>
+      </c>
+      <c r="F154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B155" t="s">
+        <v>489</v>
+      </c>
+      <c r="C155" t="s">
+        <v>387</v>
+      </c>
+      <c r="D155" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B156" t="s">
+        <v>489</v>
+      </c>
+      <c r="C156" t="s">
+        <v>387</v>
+      </c>
+      <c r="D156" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B157" t="s">
+        <v>489</v>
+      </c>
+      <c r="C157" t="s">
+        <v>387</v>
+      </c>
+      <c r="D157" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B158" t="s">
+        <v>479</v>
+      </c>
+      <c r="C158" t="s">
+        <v>556</v>
+      </c>
+      <c r="D158" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" t="s">
+        <v>490</v>
+      </c>
+      <c r="C159" t="s">
+        <v>563</v>
+      </c>
+      <c r="D159" t="s">
+        <v>538</v>
+      </c>
+      <c r="E159" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" t="s">
+        <v>491</v>
+      </c>
+      <c r="C160" t="s">
+        <v>563</v>
+      </c>
+      <c r="D160" t="s">
+        <v>538</v>
+      </c>
+      <c r="E160" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" t="s">
+        <v>492</v>
+      </c>
+      <c r="C161" t="s">
+        <v>387</v>
+      </c>
+      <c r="D161" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" t="s">
+        <v>493</v>
+      </c>
+      <c r="C162" t="s">
+        <v>387</v>
+      </c>
+      <c r="D162" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B163" t="s">
+        <v>493</v>
+      </c>
+      <c r="C163" t="s">
+        <v>387</v>
+      </c>
+      <c r="D163" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B164" t="s">
+        <v>493</v>
+      </c>
+      <c r="C164" t="s">
+        <v>387</v>
+      </c>
+      <c r="D164" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B165" t="s">
+        <v>494</v>
+      </c>
+      <c r="C165" t="s">
+        <v>550</v>
+      </c>
+      <c r="D165" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B166" t="s">
+        <v>495</v>
+      </c>
+      <c r="C166" t="s">
+        <v>532</v>
+      </c>
+      <c r="D166" t="s">
+        <v>538</v>
+      </c>
+      <c r="E166" t="s">
+        <v>385</v>
+      </c>
+      <c r="F166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B167" t="s">
+        <v>496</v>
+      </c>
+      <c r="C167" t="s">
+        <v>387</v>
+      </c>
+      <c r="D167" t="s">
+        <v>538</v>
+      </c>
+      <c r="E167" t="s">
+        <v>529</v>
+      </c>
+      <c r="F167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B168" t="s">
+        <v>496</v>
+      </c>
+      <c r="C168" t="s">
+        <v>387</v>
+      </c>
+      <c r="D168" t="s">
+        <v>538</v>
+      </c>
+      <c r="E168" t="s">
+        <v>529</v>
+      </c>
+      <c r="F168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B169" t="s">
+        <v>497</v>
+      </c>
+      <c r="C169" t="s">
+        <v>387</v>
+      </c>
+      <c r="D169" t="s">
+        <v>538</v>
+      </c>
+      <c r="E169" t="s">
+        <v>529</v>
+      </c>
+      <c r="F169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B170" t="s">
+        <v>498</v>
+      </c>
+      <c r="C170" t="s">
+        <v>563</v>
+      </c>
+      <c r="D170" t="s">
+        <v>538</v>
+      </c>
+      <c r="E170" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B171" t="s">
+        <v>499</v>
+      </c>
+      <c r="C171" t="s">
+        <v>532</v>
+      </c>
+      <c r="D171" t="s">
+        <v>539</v>
+      </c>
+      <c r="E171" t="s">
+        <v>385</v>
+      </c>
+      <c r="F171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B172" t="s">
+        <v>500</v>
+      </c>
+      <c r="C172" t="s">
+        <v>564</v>
+      </c>
+      <c r="D172" t="s">
+        <v>538</v>
+      </c>
+      <c r="E172" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B173" t="s">
+        <v>500</v>
+      </c>
+      <c r="C173" t="s">
+        <v>564</v>
+      </c>
+      <c r="D173" t="s">
+        <v>538</v>
+      </c>
+      <c r="E173" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B174" t="s">
+        <v>501</v>
+      </c>
+      <c r="C174" t="s">
+        <v>564</v>
+      </c>
+      <c r="D174" t="s">
+        <v>538</v>
+      </c>
+      <c r="E174" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B175" t="s">
+        <v>501</v>
+      </c>
+      <c r="C175" t="s">
+        <v>564</v>
+      </c>
+      <c r="D175" t="s">
+        <v>538</v>
+      </c>
+      <c r="E175" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B176" t="s">
+        <v>502</v>
+      </c>
+      <c r="C176" t="s">
+        <v>522</v>
+      </c>
+      <c r="D176" t="s">
+        <v>538</v>
+      </c>
+      <c r="E176" t="s">
+        <v>385</v>
+      </c>
+      <c r="F176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" t="s">
+        <v>503</v>
+      </c>
+      <c r="C177" t="s">
+        <v>531</v>
+      </c>
+      <c r="D177" t="s">
+        <v>538</v>
+      </c>
+      <c r="E177" t="s">
+        <v>529</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B178" t="s">
+        <v>504</v>
+      </c>
+      <c r="C178" t="s">
+        <v>522</v>
+      </c>
+      <c r="D178" t="s">
+        <v>538</v>
+      </c>
+      <c r="E178" t="s">
+        <v>385</v>
+      </c>
+      <c r="F178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B179" t="s">
+        <v>505</v>
+      </c>
+      <c r="C179" t="s">
+        <v>522</v>
+      </c>
+      <c r="D179" t="s">
+        <v>538</v>
+      </c>
+      <c r="E179" t="s">
+        <v>385</v>
+      </c>
+      <c r="F179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B180" t="s">
+        <v>506</v>
+      </c>
+      <c r="C180" t="s">
+        <v>565</v>
+      </c>
+      <c r="D180" t="s">
+        <v>538</v>
+      </c>
+      <c r="E180" t="s">
+        <v>561</v>
+      </c>
+      <c r="F180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B181" t="s">
+        <v>506</v>
+      </c>
+      <c r="C181" t="s">
+        <v>565</v>
+      </c>
+      <c r="D181" t="s">
+        <v>538</v>
+      </c>
+      <c r="E181" t="s">
+        <v>561</v>
+      </c>
+      <c r="F181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B182" t="s">
+        <v>507</v>
+      </c>
+      <c r="C182" t="s">
+        <v>565</v>
+      </c>
+      <c r="D182" t="s">
+        <v>538</v>
+      </c>
+      <c r="E182" t="s">
+        <v>561</v>
+      </c>
+      <c r="F182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" t="s">
+        <v>508</v>
+      </c>
+      <c r="C183" t="s">
+        <v>555</v>
+      </c>
+      <c r="D183" t="s">
+        <v>538</v>
+      </c>
+      <c r="E183" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B184" t="s">
+        <v>509</v>
+      </c>
+      <c r="C184" t="s">
+        <v>566</v>
+      </c>
+      <c r="D184" t="s">
+        <v>539</v>
+      </c>
+      <c r="E184" t="s">
+        <v>533</v>
+      </c>
+      <c r="F184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B185" t="s">
+        <v>510</v>
+      </c>
+      <c r="C185" t="s">
+        <v>522</v>
+      </c>
+      <c r="D185" t="s">
+        <v>538</v>
+      </c>
+      <c r="E185" t="s">
+        <v>385</v>
+      </c>
+      <c r="F185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B186" t="s">
+        <v>511</v>
+      </c>
+      <c r="C186" t="s">
+        <v>388</v>
+      </c>
+      <c r="D186" t="s">
+        <v>538</v>
+      </c>
+      <c r="E186" t="s">
+        <v>549</v>
+      </c>
+      <c r="F186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B187" t="s">
+        <v>512</v>
+      </c>
+      <c r="C187" t="s">
+        <v>532</v>
+      </c>
+      <c r="D187" t="s">
+        <v>539</v>
+      </c>
+      <c r="E187" t="s">
+        <v>385</v>
+      </c>
+      <c r="F187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B188" t="s">
+        <v>487</v>
+      </c>
+      <c r="C188" t="s">
+        <v>387</v>
+      </c>
+      <c r="D188" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B189" t="s">
+        <v>487</v>
+      </c>
+      <c r="C189" t="s">
+        <v>387</v>
+      </c>
+      <c r="D189" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B190" t="s">
+        <v>513</v>
+      </c>
+      <c r="C190" t="s">
+        <v>554</v>
+      </c>
+      <c r="D190" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B191" t="s">
+        <v>514</v>
+      </c>
+      <c r="C191" t="s">
+        <v>563</v>
+      </c>
+      <c r="D191" t="s">
+        <v>538</v>
+      </c>
+      <c r="E191" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B192" t="s">
+        <v>515</v>
+      </c>
+      <c r="C192" t="s">
+        <v>563</v>
+      </c>
+      <c r="D192" t="s">
+        <v>538</v>
+      </c>
+      <c r="E192" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B193" t="s">
+        <v>516</v>
+      </c>
+      <c r="C193" t="s">
+        <v>556</v>
+      </c>
+      <c r="D193" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BF1EB5-7EAC-4263-A4B1-E5BF1875FF7F}">
   <dimension ref="A1:AF87"/>
   <sheetViews>
@@ -6435,7 +10180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51208281-3E24-4654-87D0-5BF2E8C3944E}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AF93"/>
@@ -10183,7 +13928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E1B2C1-252D-4F23-9245-9845FA767597}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG38"/>
@@ -11822,6 +15567,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D043F9FF1D31F444B12D1B8F30B7CF87" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6b526c4793c89feb0c8cdabd3c692c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e745851-e6e8-42e6-89fe-c235679e32c0" xmlns:ns3="e199ede6-7e25-4580-bda2-cfde9ad7e904" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d595913af439e730afc6ac66aee0fc3" ns2:_="" ns3:_="">
     <xsd:import namespace="7e745851-e6e8-42e6-89fe-c235679e32c0"/>
@@ -11992,16 +15746,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3263C5-0AF8-41EC-BDD2-5AE3B0772BD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A469AFBF-675B-425C-AFB3-A93069D4EE41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12018,12 +15771,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3263C5-0AF8-41EC-BDD2-5AE3B0772BD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Question Mapping.xlsx
+++ b/Question Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC97923-88BF-4D95-92E5-4D992675C30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD729F1-2939-4999-BA74-1640B7BFF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A6574B0E-7A8B-4CB0-B81E-366180133FA1}"/>
+    <workbookView xWindow="45972" yWindow="492" windowWidth="13176" windowHeight="22656" xr2:uid="{A6574B0E-7A8B-4CB0-B81E-366180133FA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Q_ci!$A$1:$AG$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Q_hs_post!$A$1:$AF$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Q_hs_pre!$A$1:$AF$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stats!$F$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Q-map'!$A$1:$F$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stats!$F$1:$R$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="569">
   <si>
     <t xml:space="preserve">G </t>
   </si>
@@ -1303,15 +1304,9 @@
     <t>Investigate</t>
   </si>
   <si>
-    <t>Demographics</t>
-  </si>
-  <si>
     <t>Health</t>
   </si>
   <si>
-    <t>Economic activity</t>
-  </si>
-  <si>
     <t>Consumption</t>
   </si>
   <si>
@@ -1850,6 +1845,18 @@
   </si>
   <si>
     <t>Which ones</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2166,6 +2173,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2481,11 +2494,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C686D34-E6E7-42EB-A000-4AF5B0346840}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:D24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2549,7 +2563,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="34" t="s">
         <v>279</v>
@@ -2564,7 +2578,7 @@
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2585,7 +2599,7 @@
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
     </row>
-    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2629,10 +2643,10 @@
         <v>166</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2742,7 +2756,7 @@
       </c>
       <c r="R7" s="35"/>
     </row>
-    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2763,7 +2777,7 @@
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
     </row>
-    <row r="9" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2821,6 +2835,9 @@
       </c>
       <c r="F10" t="s">
         <v>201</v>
+      </c>
+      <c r="G10" t="s">
+        <v>567</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>217</v>
@@ -2848,7 +2865,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2866,7 +2883,7 @@
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2917,7 +2934,7 @@
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E14" s="39" t="s">
         <v>144</v>
       </c>
@@ -2928,7 +2945,7 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
     </row>
-    <row r="15" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E15" s="47" t="s">
         <v>130</v>
       </c>
@@ -2965,7 +2982,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E16" s="39" t="s">
         <v>146</v>
       </c>
@@ -2976,7 +2993,7 @@
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
     </row>
-    <row r="17" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E17" s="47" t="s">
         <v>104</v>
       </c>
@@ -3013,7 +3030,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E18" s="47" t="s">
         <v>141</v>
       </c>
@@ -3046,7 +3063,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E19" s="40" t="s">
         <v>92</v>
       </c>
@@ -3057,7 +3074,7 @@
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="C20" s="57"/>
       <c r="D20" s="58"/>
       <c r="E20" s="41" t="s">
@@ -3070,7 +3087,7 @@
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
     </row>
-    <row r="21" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E21" s="48" t="s">
         <v>175</v>
       </c>
@@ -3168,7 +3185,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="E24" s="48" t="s">
         <v>116</v>
       </c>
@@ -3199,7 +3216,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E25" s="41" t="s">
         <v>209</v>
       </c>
@@ -3240,7 +3257,7 @@
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
     </row>
-    <row r="27" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E27" s="48" t="s">
         <v>132</v>
       </c>
@@ -3275,7 +3292,7 @@
       </c>
       <c r="R27" s="35"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E28" s="41" t="s">
         <v>207</v>
       </c>
@@ -3322,7 +3339,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E30" s="48" t="s">
         <v>113</v>
       </c>
@@ -3354,7 +3371,7 @@
       </c>
       <c r="R30" s="35"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E31" s="42" t="s">
         <v>93</v>
       </c>
@@ -3365,7 +3382,7 @@
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E32" s="43" t="s">
         <v>154</v>
       </c>
@@ -3436,7 +3453,7 @@
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
     </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E35" s="43" t="s">
         <v>155</v>
       </c>
@@ -3513,7 +3530,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E38" s="44" t="s">
         <v>94</v>
       </c>
@@ -3524,7 +3541,7 @@
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
     </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E39" s="45" t="s">
         <v>210</v>
       </c>
@@ -3565,7 +3582,7 @@
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
     </row>
-    <row r="41" spans="5:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E41" s="50" t="s">
         <v>198</v>
       </c>
@@ -3602,7 +3619,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="5:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E42" s="50" t="s">
         <v>197</v>
       </c>
@@ -3636,7 +3653,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E43" s="45" t="s">
         <v>212</v>
       </c>
@@ -3684,7 +3701,7 @@
       </c>
       <c r="R44" s="35"/>
     </row>
-    <row r="45" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="E45" s="45" t="s">
         <v>211</v>
       </c>
@@ -3695,7 +3712,7 @@
       <c r="Q45" s="35"/>
       <c r="R45" s="35"/>
     </row>
-    <row r="46" spans="5:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E46" s="50" t="s">
         <v>135</v>
       </c>
@@ -3746,7 +3763,13 @@
       <c r="N50" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:R1" xr:uid="{8C686D34-E6E7-42EB-A000-4AF5B0346840}"/>
+  <autoFilter ref="F1:R46" xr:uid="{8C686D34-E6E7-42EB-A000-4AF5B0346840}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="HS Pre, HS Post"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A22:A23"/>
@@ -3759,10 +3782,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F539560A-053D-46B1-AC45-492ED0F30E96}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G195" sqref="G195"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3772,23 +3796,27 @@
     <col min="3" max="3" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.08984375" customWidth="1"/>
     <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C1" s="53" t="s">
         <v>383</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>537</v>
-      </c>
-      <c r="F1" t="s">
-        <v>534</v>
+        <v>535</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3796,55 +3824,55 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="F3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F4">
+        <v>527</v>
+      </c>
+      <c r="F4" s="60">
         <v>8</v>
       </c>
     </row>
@@ -3853,366 +3881,366 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F6">
+        <v>385</v>
+      </c>
+      <c r="F6" s="60">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F7">
+        <v>385</v>
+      </c>
+      <c r="F7" s="60">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F8">
+        <v>385</v>
+      </c>
+      <c r="F8" s="60">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E9" t="s">
-        <v>388</v>
-      </c>
-      <c r="F9">
+        <v>386</v>
+      </c>
+      <c r="F9" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F10">
+        <v>386</v>
+      </c>
+      <c r="F10" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E11" t="s">
-        <v>388</v>
-      </c>
-      <c r="F11">
+        <v>386</v>
+      </c>
+      <c r="F11" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E12" t="s">
-        <v>389</v>
-      </c>
-      <c r="F12">
+        <v>387</v>
+      </c>
+      <c r="F12" s="60">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E15" t="s">
-        <v>388</v>
-      </c>
-      <c r="F15">
+        <v>386</v>
+      </c>
+      <c r="F15" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E16" t="s">
-        <v>385</v>
-      </c>
-      <c r="F16">
+        <v>384</v>
+      </c>
+      <c r="F16" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E17" t="s">
-        <v>385</v>
-      </c>
-      <c r="F17">
+        <v>384</v>
+      </c>
+      <c r="F17" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E18" t="s">
-        <v>385</v>
-      </c>
-      <c r="F18">
+        <v>384</v>
+      </c>
+      <c r="F18" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E19" t="s">
-        <v>388</v>
-      </c>
-      <c r="F19">
+        <v>386</v>
+      </c>
+      <c r="F19" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C21" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E21" t="s">
-        <v>529</v>
-      </c>
-      <c r="F21">
+        <v>527</v>
+      </c>
+      <c r="F21" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E22" t="s">
-        <v>385</v>
-      </c>
-      <c r="F22">
+        <v>384</v>
+      </c>
+      <c r="F22" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D23" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E23" t="s">
-        <v>533</v>
-      </c>
-      <c r="F23">
+        <v>531</v>
+      </c>
+      <c r="F23" s="60">
         <v>4</v>
       </c>
     </row>
@@ -4221,72 +4249,72 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C24" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E24" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C25" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E25" t="s">
-        <v>533</v>
-      </c>
-      <c r="F25">
+        <v>531</v>
+      </c>
+      <c r="F25" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D26" t="s">
+        <v>536</v>
+      </c>
+      <c r="E26" t="s">
         <v>538</v>
       </c>
-      <c r="E26" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C27" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E27" t="s">
-        <v>385</v>
-      </c>
-      <c r="F27">
+        <v>384</v>
+      </c>
+      <c r="F27" s="60">
         <v>3</v>
       </c>
     </row>
@@ -4295,281 +4323,281 @@
         <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D28" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E28" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C29" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D29" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E29" t="s">
-        <v>533</v>
-      </c>
-      <c r="F29">
+        <v>531</v>
+      </c>
+      <c r="F29" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E30" t="s">
-        <v>533</v>
-      </c>
-      <c r="F30">
+        <v>531</v>
+      </c>
+      <c r="F30" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D31" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E31" t="s">
-        <v>529</v>
-      </c>
-      <c r="F31">
+        <v>527</v>
+      </c>
+      <c r="F31" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C32" t="s">
+        <v>534</v>
+      </c>
+      <c r="D32" t="s">
         <v>536</v>
       </c>
-      <c r="D32" t="s">
-        <v>538</v>
-      </c>
       <c r="E32" t="s">
-        <v>529</v>
-      </c>
-      <c r="F32">
+        <v>527</v>
+      </c>
+      <c r="F32" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C33" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D33" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E33" t="s">
-        <v>529</v>
-      </c>
-      <c r="F33">
+        <v>527</v>
+      </c>
+      <c r="F33" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C34" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D34" t="s">
+        <v>536</v>
+      </c>
+      <c r="E34" t="s">
         <v>538</v>
       </c>
-      <c r="E34" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D35" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E35" t="s">
-        <v>533</v>
-      </c>
-      <c r="F35">
+        <v>531</v>
+      </c>
+      <c r="F35" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C36" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D36" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E36" t="s">
-        <v>385</v>
-      </c>
-      <c r="F36">
+        <v>384</v>
+      </c>
+      <c r="F36" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C37" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D37" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E37" t="s">
-        <v>385</v>
-      </c>
-      <c r="F37">
+        <v>384</v>
+      </c>
+      <c r="F37" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C38" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D38" t="s">
+        <v>536</v>
+      </c>
+      <c r="E38" t="s">
         <v>538</v>
       </c>
-      <c r="E38" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C39" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D39" t="s">
+        <v>536</v>
+      </c>
+      <c r="E39" t="s">
         <v>538</v>
       </c>
-      <c r="E39" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C40" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D40" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E40" t="s">
-        <v>542</v>
-      </c>
-      <c r="F40">
+        <v>540</v>
+      </c>
+      <c r="F40" s="60">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C41" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D41" t="s">
+        <v>536</v>
+      </c>
+      <c r="E41" t="s">
         <v>538</v>
       </c>
-      <c r="E41" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D42" t="s">
+        <v>536</v>
+      </c>
+      <c r="E42" t="s">
         <v>538</v>
-      </c>
-      <c r="E42" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -4577,16 +4605,16 @@
         <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C43" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E43" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -4594,84 +4622,84 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C44" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D44" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E44" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C45" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D45" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E45" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C46" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D46" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E46" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C47" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D47" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E47" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B48" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C48" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D48" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E48" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -4679,160 +4707,160 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C49" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D49" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E49" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B50" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C50" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D50" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E50" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C51" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D51" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E51" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C52" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D52" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E52" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C53" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D53" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E53" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C54" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D54" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E54" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B55" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C55" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D55" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E55" t="s">
-        <v>385</v>
-      </c>
-      <c r="F55">
+        <v>384</v>
+      </c>
+      <c r="F55" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B56" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C56" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D56" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E56" t="s">
-        <v>385</v>
-      </c>
-      <c r="F56">
+        <v>384</v>
+      </c>
+      <c r="F56" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B57" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C57" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D57" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E57" t="s">
-        <v>385</v>
-      </c>
-      <c r="F57">
+        <v>384</v>
+      </c>
+      <c r="F57" s="60">
         <v>3</v>
       </c>
     </row>
@@ -4841,55 +4869,55 @@
         <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C58" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D58" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E58" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C59" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D59" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E59" t="s">
-        <v>533</v>
-      </c>
-      <c r="F59">
+        <v>531</v>
+      </c>
+      <c r="F59" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C60" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D60" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E60" t="s">
-        <v>533</v>
-      </c>
-      <c r="F60">
+        <v>531</v>
+      </c>
+      <c r="F60" s="60">
         <v>4</v>
       </c>
     </row>
@@ -4898,229 +4926,229 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C61" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D61" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E61" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C62" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D62" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E62" t="s">
-        <v>385</v>
-      </c>
-      <c r="F62">
+        <v>384</v>
+      </c>
+      <c r="F62" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C63" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D63" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E63" t="s">
-        <v>385</v>
-      </c>
-      <c r="F63">
+        <v>384</v>
+      </c>
+      <c r="F63" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C64" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D64" t="s">
+        <v>536</v>
+      </c>
+      <c r="E64" t="s">
         <v>538</v>
       </c>
-      <c r="E64" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C65" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D65" t="s">
+        <v>536</v>
+      </c>
+      <c r="E65" t="s">
         <v>538</v>
       </c>
-      <c r="E65" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C66" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D66" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E66" t="s">
-        <v>388</v>
-      </c>
-      <c r="F66">
+        <v>386</v>
+      </c>
+      <c r="F66" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B67" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C67" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D67" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E67" t="s">
-        <v>388</v>
-      </c>
-      <c r="F67">
+        <v>386</v>
+      </c>
+      <c r="F67" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C68" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D68" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E68" t="s">
-        <v>388</v>
-      </c>
-      <c r="F68">
+        <v>386</v>
+      </c>
+      <c r="F68" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C69" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D69" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E69" t="s">
-        <v>533</v>
-      </c>
-      <c r="F69">
+        <v>531</v>
+      </c>
+      <c r="F69" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B70" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C70" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D70" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E70" t="s">
-        <v>533</v>
-      </c>
-      <c r="F70">
+        <v>531</v>
+      </c>
+      <c r="F70" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C71" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D71" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E71" t="s">
-        <v>533</v>
-      </c>
-      <c r="F71">
+        <v>531</v>
+      </c>
+      <c r="F71" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B72" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C72" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D72" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E72" t="s">
-        <v>533</v>
-      </c>
-      <c r="F72">
+        <v>531</v>
+      </c>
+      <c r="F72" s="60">
         <v>4</v>
       </c>
     </row>
@@ -5129,75 +5157,75 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C73" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D73" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E73" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C74" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D74" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E74" t="s">
-        <v>386</v>
-      </c>
-      <c r="F74">
+        <v>527</v>
+      </c>
+      <c r="F74" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C75" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D75" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E75" t="s">
-        <v>386</v>
-      </c>
-      <c r="F75">
+        <v>527</v>
+      </c>
+      <c r="F75" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B76" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C76" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D76" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E76" t="s">
-        <v>386</v>
-      </c>
-      <c r="F76">
+        <v>527</v>
+      </c>
+      <c r="F76" s="60">
         <v>8</v>
       </c>
     </row>
@@ -5206,16 +5234,16 @@
         <v>312</v>
       </c>
       <c r="B77" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C77" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D77" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E77" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -5223,7 +5251,7 @@
         <v>313</v>
       </c>
       <c r="B78" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -5231,7 +5259,7 @@
         <v>314</v>
       </c>
       <c r="B79" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -5239,7 +5267,7 @@
         <v>315</v>
       </c>
       <c r="B80" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5247,7 +5275,7 @@
         <v>316</v>
       </c>
       <c r="B81" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5255,7 +5283,7 @@
         <v>317</v>
       </c>
       <c r="B82" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5263,7 +5291,7 @@
         <v>318</v>
       </c>
       <c r="B83" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5271,7 +5299,7 @@
         <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5279,7 +5307,7 @@
         <v>319</v>
       </c>
       <c r="B85" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5287,7 +5315,7 @@
         <v>137</v>
       </c>
       <c r="B86" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5295,7 +5323,7 @@
         <v>320</v>
       </c>
       <c r="B87" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5303,7 +5331,7 @@
         <v>321</v>
       </c>
       <c r="B88" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -5311,7 +5339,7 @@
         <v>171</v>
       </c>
       <c r="B89" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5319,7 +5347,7 @@
         <v>18</v>
       </c>
       <c r="B90" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -5327,7 +5355,7 @@
         <v>322</v>
       </c>
       <c r="B91" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5335,7 +5363,7 @@
         <v>323</v>
       </c>
       <c r="B92" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5343,7 +5371,7 @@
         <v>324</v>
       </c>
       <c r="B93" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5351,7 +5379,7 @@
         <v>325</v>
       </c>
       <c r="B94" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5359,7 +5387,7 @@
         <v>326</v>
       </c>
       <c r="B95" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5367,7 +5395,7 @@
         <v>327</v>
       </c>
       <c r="B96" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5375,7 +5403,7 @@
         <v>328</v>
       </c>
       <c r="B97" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5383,7 +5411,7 @@
         <v>329</v>
       </c>
       <c r="B98" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5391,7 +5419,7 @@
         <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5399,7 +5427,7 @@
         <v>331</v>
       </c>
       <c r="B100" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5407,7 +5435,7 @@
         <v>332</v>
       </c>
       <c r="B101" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5415,7 +5443,7 @@
         <v>333</v>
       </c>
       <c r="B102" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5423,7 +5451,7 @@
         <v>334</v>
       </c>
       <c r="B103" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5431,7 +5459,7 @@
         <v>335</v>
       </c>
       <c r="B104" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5439,7 +5467,7 @@
         <v>336</v>
       </c>
       <c r="B105" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5447,7 +5475,7 @@
         <v>337</v>
       </c>
       <c r="B106" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5455,7 +5483,7 @@
         <v>338</v>
       </c>
       <c r="B107" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5463,7 +5491,7 @@
         <v>339</v>
       </c>
       <c r="B108" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5471,7 +5499,7 @@
         <v>340</v>
       </c>
       <c r="B109" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5479,7 +5507,7 @@
         <v>341</v>
       </c>
       <c r="B110" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5487,7 +5515,7 @@
         <v>342</v>
       </c>
       <c r="B111" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5495,7 +5523,7 @@
         <v>343</v>
       </c>
       <c r="B112" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5503,7 +5531,7 @@
         <v>344</v>
       </c>
       <c r="B113" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5511,7 +5539,7 @@
         <v>345</v>
       </c>
       <c r="B114" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5519,7 +5547,7 @@
         <v>346</v>
       </c>
       <c r="B115" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5527,7 +5555,7 @@
         <v>347</v>
       </c>
       <c r="B116" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5535,7 +5563,7 @@
         <v>348</v>
       </c>
       <c r="B117" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5543,7 +5571,7 @@
         <v>349</v>
       </c>
       <c r="B118" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5551,7 +5579,7 @@
         <v>350</v>
       </c>
       <c r="B119" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5559,7 +5587,7 @@
         <v>351</v>
       </c>
       <c r="B120" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5567,7 +5595,7 @@
         <v>352</v>
       </c>
       <c r="B121" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5575,7 +5603,7 @@
         <v>353</v>
       </c>
       <c r="B122" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5583,7 +5611,7 @@
         <v>354</v>
       </c>
       <c r="B123" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5591,7 +5619,7 @@
         <v>355</v>
       </c>
       <c r="B124" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5599,7 +5627,7 @@
         <v>356</v>
       </c>
       <c r="B125" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5607,7 +5635,7 @@
         <v>357</v>
       </c>
       <c r="B126" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5615,7 +5643,7 @@
         <v>358</v>
       </c>
       <c r="B127" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
@@ -5623,7 +5651,7 @@
         <v>359</v>
       </c>
       <c r="B128" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -5631,7 +5659,7 @@
         <v>360</v>
       </c>
       <c r="B129" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -5639,7 +5667,7 @@
         <v>361</v>
       </c>
       <c r="B130" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -5647,7 +5675,7 @@
         <v>362</v>
       </c>
       <c r="B131" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -5655,7 +5683,7 @@
         <v>363</v>
       </c>
       <c r="B132" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -5663,7 +5691,7 @@
         <v>364</v>
       </c>
       <c r="B133" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -5671,7 +5699,7 @@
         <v>365</v>
       </c>
       <c r="B134" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -5679,118 +5707,118 @@
         <v>366</v>
       </c>
       <c r="B135" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B136" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C136" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D136" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E136" t="s">
-        <v>549</v>
-      </c>
-      <c r="F136">
+        <v>547</v>
+      </c>
+      <c r="F136" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B137" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C137" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D137" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C138" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D138" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E138" t="s">
-        <v>529</v>
-      </c>
-      <c r="F138">
+        <v>527</v>
+      </c>
+      <c r="F138" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B139" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C139" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D139" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E139" t="s">
-        <v>529</v>
-      </c>
-      <c r="F139">
+        <v>527</v>
+      </c>
+      <c r="F139" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B140" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C140" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D140" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E140" t="s">
-        <v>549</v>
-      </c>
-      <c r="F140">
+        <v>547</v>
+      </c>
+      <c r="F140" s="60">
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B141" t="s">
+        <v>551</v>
+      </c>
+      <c r="C141" t="s">
         <v>552</v>
       </c>
-      <c r="B141" t="s">
-        <v>553</v>
-      </c>
-      <c r="C141" t="s">
-        <v>554</v>
-      </c>
       <c r="D141" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E141" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -5798,44 +5826,44 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C142" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D142" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E142" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B143" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C143" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D143" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B144" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C144" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D144" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -5843,35 +5871,35 @@
         <v>96</v>
       </c>
       <c r="B145" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C145" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D145" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E145" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B146" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C146" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D146" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E146" t="s">
-        <v>529</v>
-      </c>
-      <c r="F146">
+        <v>527</v>
+      </c>
+      <c r="F146" s="60">
         <v>8</v>
       </c>
     </row>
@@ -5880,194 +5908,194 @@
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C147" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D147" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E147" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B148" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C148" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D148" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E148" t="s">
-        <v>529</v>
-      </c>
-      <c r="F148">
+        <v>527</v>
+      </c>
+      <c r="F148" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B149" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C149" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D149" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E149" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B150" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C150" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D150" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E150" t="s">
+        <v>558</v>
+      </c>
+      <c r="F150" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="F150" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B151" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C151" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B152" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C152" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D152" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E152" t="s">
-        <v>529</v>
-      </c>
-      <c r="F152">
+        <v>527</v>
+      </c>
+      <c r="F152" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B153" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C153" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D153" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C154" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D154" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E154" t="s">
-        <v>529</v>
-      </c>
-      <c r="F154">
+        <v>527</v>
+      </c>
+      <c r="F154" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B155" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C155" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D155" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B156" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C156" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D156" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B157" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C157" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D157" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B158" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C158" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D158" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -6075,16 +6103,16 @@
         <v>28</v>
       </c>
       <c r="B159" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C159" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D159" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E159" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -6092,165 +6120,165 @@
         <v>29</v>
       </c>
       <c r="B160" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C160" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D160" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E160" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B161" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C161" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D161" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C162" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D162" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B163" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C163" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D163" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B164" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C164" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D164" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B165" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C165" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D165" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B166" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C166" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D166" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E166" t="s">
-        <v>385</v>
-      </c>
-      <c r="F166">
+        <v>384</v>
+      </c>
+      <c r="F166" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B167" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C167" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D167" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E167" t="s">
-        <v>529</v>
-      </c>
-      <c r="F167">
+        <v>527</v>
+      </c>
+      <c r="F167" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B168" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C168" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D168" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E168" t="s">
-        <v>529</v>
-      </c>
-      <c r="F168">
+        <v>527</v>
+      </c>
+      <c r="F168" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B169" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C169" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D169" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E169" t="s">
-        <v>529</v>
-      </c>
-      <c r="F169">
+        <v>527</v>
+      </c>
+      <c r="F169" s="60">
         <v>8</v>
       </c>
     </row>
@@ -6259,35 +6287,35 @@
         <v>82</v>
       </c>
       <c r="B170" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C170" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D170" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E170" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B171" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C171" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D171" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E171" t="s">
-        <v>385</v>
-      </c>
-      <c r="F171">
+        <v>384</v>
+      </c>
+      <c r="F171" s="60">
         <v>3</v>
       </c>
     </row>
@@ -6296,16 +6324,16 @@
         <v>375</v>
       </c>
       <c r="B172" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C172" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D172" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E172" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -6313,16 +6341,16 @@
         <v>37</v>
       </c>
       <c r="B173" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C173" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D173" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E173" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -6330,16 +6358,16 @@
         <v>376</v>
       </c>
       <c r="B174" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C174" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D174" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E174" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -6347,155 +6375,155 @@
         <v>41</v>
       </c>
       <c r="B175" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C175" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D175" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E175" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B176" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C176" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D176" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E176" t="s">
-        <v>385</v>
-      </c>
-      <c r="F176">
+        <v>384</v>
+      </c>
+      <c r="F176" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B177" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C177" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D177" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E177" t="s">
-        <v>529</v>
-      </c>
-      <c r="F177">
+        <v>527</v>
+      </c>
+      <c r="F177" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B178" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C178" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D178" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E178" t="s">
-        <v>385</v>
-      </c>
-      <c r="F178">
+        <v>384</v>
+      </c>
+      <c r="F178" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B179" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C179" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D179" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E179" t="s">
-        <v>385</v>
-      </c>
-      <c r="F179">
+        <v>384</v>
+      </c>
+      <c r="F179" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B180" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C180" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D180" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E180" t="s">
-        <v>561</v>
-      </c>
-      <c r="F180">
+        <v>559</v>
+      </c>
+      <c r="F180" s="60">
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B181" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C181" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D181" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E181" t="s">
-        <v>561</v>
-      </c>
-      <c r="F181">
+        <v>559</v>
+      </c>
+      <c r="F181" s="60">
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B182" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C182" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D182" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E182" t="s">
-        <v>561</v>
-      </c>
-      <c r="F182">
+        <v>559</v>
+      </c>
+      <c r="F182" s="60">
         <v>7</v>
       </c>
     </row>
@@ -6504,138 +6532,138 @@
         <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C183" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D183" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E183" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B184" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C184" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D184" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E184" t="s">
-        <v>533</v>
-      </c>
-      <c r="F184">
+        <v>531</v>
+      </c>
+      <c r="F184" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B185" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C185" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D185" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E185" t="s">
-        <v>385</v>
-      </c>
-      <c r="F185">
+        <v>384</v>
+      </c>
+      <c r="F185" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B186" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C186" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D186" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E186" t="s">
-        <v>549</v>
-      </c>
-      <c r="F186">
+        <v>547</v>
+      </c>
+      <c r="F186" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B187" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C187" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D187" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E187" t="s">
-        <v>385</v>
-      </c>
-      <c r="F187">
+        <v>384</v>
+      </c>
+      <c r="F187" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B188" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C188" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D188" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B189" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C189" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D189" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B190" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C190" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D190" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6643,16 +6671,16 @@
         <v>59</v>
       </c>
       <c r="B191" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C191" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D191" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E191" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -6660,33 +6688,40 @@
         <v>81</v>
       </c>
       <c r="B192" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C192" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D192" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E192" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B193" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C193" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D193" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F193" xr:uid="{F539560A-053D-46B1-AC45-492ED0F30E96}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Profile"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Question Mapping.xlsx
+++ b/Question Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD729F1-2939-4999-BA74-1640B7BFF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FCAE10-3FD4-4E58-9441-AA47F0D8826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="492" windowWidth="13176" windowHeight="22656" xr2:uid="{A6574B0E-7A8B-4CB0-B81E-366180133FA1}"/>
   </bookViews>
@@ -2494,12 +2494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C686D34-E6E7-42EB-A000-4AF5B0346840}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40:E46"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2563,7 +2562,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="34" t="s">
         <v>279</v>
@@ -2578,7 +2577,7 @@
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2599,7 +2598,7 @@
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
     </row>
-    <row r="4" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2756,7 +2755,7 @@
       </c>
       <c r="R7" s="35"/>
     </row>
-    <row r="8" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2777,7 +2776,7 @@
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
     </row>
-    <row r="9" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2883,7 +2882,7 @@
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2934,7 +2933,7 @@
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E14" s="39" t="s">
         <v>144</v>
       </c>
@@ -2945,7 +2944,7 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
     </row>
-    <row r="15" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E15" s="47" t="s">
         <v>130</v>
       </c>
@@ -2982,7 +2981,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E16" s="39" t="s">
         <v>146</v>
       </c>
@@ -2993,7 +2992,7 @@
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
     </row>
-    <row r="17" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E17" s="47" t="s">
         <v>104</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E18" s="47" t="s">
         <v>141</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E19" s="40" t="s">
         <v>92</v>
       </c>
@@ -3074,7 +3073,7 @@
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C20" s="57"/>
       <c r="D20" s="58"/>
       <c r="E20" s="41" t="s">
@@ -3087,7 +3086,7 @@
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
     </row>
-    <row r="21" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="E21" s="48" t="s">
         <v>175</v>
       </c>
@@ -3124,7 +3123,7 @@
       <c r="E22" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="55" t="s">
         <v>201</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -3185,7 +3184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="E24" s="48" t="s">
         <v>116</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E25" s="41" t="s">
         <v>209</v>
       </c>
@@ -3257,12 +3256,12 @@
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
     </row>
-    <row r="27" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E27" s="48" t="s">
         <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>224</v>
@@ -3292,7 +3291,7 @@
       </c>
       <c r="R27" s="35"/>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E28" s="41" t="s">
         <v>207</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E30" s="48" t="s">
         <v>113</v>
       </c>
@@ -3371,7 +3370,7 @@
       </c>
       <c r="R30" s="35"/>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E31" s="42" t="s">
         <v>93</v>
       </c>
@@ -3382,7 +3381,7 @@
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E32" s="43" t="s">
         <v>154</v>
       </c>
@@ -3453,7 +3452,7 @@
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
     </row>
-    <row r="35" spans="5:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E35" s="43" t="s">
         <v>155</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="5:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E38" s="44" t="s">
         <v>94</v>
       </c>
@@ -3541,7 +3540,7 @@
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
     </row>
-    <row r="39" spans="5:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E39" s="45" t="s">
         <v>210</v>
       </c>
@@ -3582,7 +3581,7 @@
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
     </row>
-    <row r="41" spans="5:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E41" s="50" t="s">
         <v>198</v>
       </c>
@@ -3619,7 +3618,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="5:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E42" s="50" t="s">
         <v>197</v>
       </c>
@@ -3653,7 +3652,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="5:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E43" s="45" t="s">
         <v>212</v>
       </c>
@@ -3701,7 +3700,7 @@
       </c>
       <c r="R44" s="35"/>
     </row>
-    <row r="45" spans="5:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E45" s="45" t="s">
         <v>211</v>
       </c>
@@ -3712,7 +3711,7 @@
       <c r="Q45" s="35"/>
       <c r="R45" s="35"/>
     </row>
-    <row r="46" spans="5:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E46" s="50" t="s">
         <v>135</v>
       </c>
@@ -3763,13 +3762,7 @@
       <c r="N50" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:R46" xr:uid="{8C686D34-E6E7-42EB-A000-4AF5B0346840}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="HS Pre, HS Post"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="F1:R46" xr:uid="{8C686D34-E6E7-42EB-A000-4AF5B0346840}"/>
   <mergeCells count="2">
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A22:A23"/>
@@ -3819,7 +3812,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>12</v>
       </c>
@@ -3856,7 +3849,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -3876,7 +3869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4184,7 +4177,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>197</v>
       </c>
@@ -4244,7 +4237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -4318,7 +4311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>100</v>
       </c>
@@ -4375,7 +4368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>300</v>
       </c>
@@ -4395,7 +4388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>198</v>
       </c>
@@ -4415,7 +4408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
@@ -4600,7 +4593,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>174</v>
       </c>
@@ -4617,7 +4610,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -4702,7 +4695,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -4864,7 +4857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>27</v>
       </c>
@@ -4921,7 +4914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -5152,7 +5145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
@@ -5169,7 +5162,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>107</v>
       </c>
@@ -5189,7 +5182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
@@ -5209,7 +5202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>311</v>
       </c>
@@ -5229,7 +5222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>312</v>
       </c>
@@ -5744,7 +5737,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>106</v>
       </c>
@@ -5764,7 +5757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>125</v>
       </c>
@@ -5804,7 +5797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>550</v>
       </c>
@@ -5821,7 +5814,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>20</v>
       </c>
@@ -5866,7 +5859,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>96</v>
       </c>
@@ -5883,7 +5876,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>123</v>
       </c>
@@ -5903,7 +5896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>3</v>
       </c>
@@ -5920,7 +5913,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>135</v>
       </c>
@@ -5988,7 +5981,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>130</v>
       </c>
@@ -6022,7 +6015,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>22</v>
       </c>
@@ -6098,7 +6091,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>28</v>
       </c>
@@ -6115,7 +6108,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>29</v>
       </c>
@@ -6222,7 +6215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>373</v>
       </c>
@@ -6242,7 +6235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>63</v>
       </c>
@@ -6262,7 +6255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>60</v>
       </c>
@@ -6282,7 +6275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>82</v>
       </c>
@@ -6319,7 +6312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>375</v>
       </c>
@@ -6336,7 +6329,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>37</v>
       </c>
@@ -6353,7 +6346,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>376</v>
       </c>
@@ -6370,7 +6363,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>41</v>
       </c>
@@ -6407,7 +6400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>23</v>
       </c>
@@ -6527,7 +6520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>15</v>
       </c>
@@ -6666,7 +6659,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>59</v>
       </c>
@@ -6683,7 +6676,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>81</v>
       </c>
@@ -6718,7 +6711,7 @@
   <autoFilter ref="A1:F193" xr:uid="{F539560A-053D-46B1-AC45-492ED0F30E96}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Profile"/>
+        <filter val="Economic"/>
       </filters>
     </filterColumn>
   </autoFilter>
